--- a/Article_comments_1.xlsx
+++ b/Article_comments_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="404">
   <si>
     <t>내용</t>
   </si>
@@ -25,778 +25,1207 @@
     <t>싫어요</t>
   </si>
   <si>
-    <t>봉도동 ㅋㅋ 기자맞냐</t>
-  </si>
-  <si>
-    <t>글자를 잊은 기레기에게 월급은 없다</t>
-  </si>
-  <si>
-    <t>기자 양반최소한 제목정도는 제대로 해야죠봉오동 전투 입니다봉도동 전투가 아니고....한심하네 진짜....</t>
-  </si>
-  <si>
-    <t>속보도 아닌데  제목 오타 확인하시지..</t>
-  </si>
-  <si>
-    <t>재미도 감동도 있어요 유배우님 믿고 봅니다 ㅋ 얼굴만 봐도 웃음이 ㅋ 류준열도 배역 잘 어울려요. 항일운동하셨던 조상님들.. 정말 감사합니다..</t>
-  </si>
-  <si>
-    <t>기자라는 양반이 아무리 역사의식이 없다해도 봉도동전투는 진짜아니지..</t>
-  </si>
-  <si>
-    <t>제목이나 똑바로  써라.  너네는 퇴고라는것도 모르냐?</t>
-  </si>
-  <si>
-    <t>배우들 연기는 물론이고 영화도 너무 좋았음 백만 축하합니다!!</t>
-  </si>
-  <si>
-    <t>이다원? 한심하다...  니가 기자냐?? 봉도동?ㅎ 차라리 봉천동 이라고 하지?.</t>
-  </si>
-  <si>
-    <t>어제 봤는데 진짜 강추!!!영화적 완성도도 뛰어나고 배우들  연기도 너무 좋았음!!!</t>
-  </si>
-  <si>
-    <t>조회수 올리려고 기레기가 수작부리네ㅋ</t>
-  </si>
-  <si>
-    <t>다원기자 역사공부좀 하세요 님친만날라고 대충기사쓰고 퇴근한거같은데</t>
-  </si>
-  <si>
-    <t>봉도동?</t>
-  </si>
-  <si>
-    <t>아 ㅋㅋㅋㅋ 역사부터 배우고 글쓰쇼ㅋㅋ</t>
-  </si>
-  <si>
-    <t>차라리 봉천동이 낫겠다!ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>무식한 기자</t>
-  </si>
-  <si>
-    <t>왜 그냥 도봉구나 봉천동이라고하지</t>
-  </si>
-  <si>
-    <t>일부러 제목 틀리게 쓴거 맞죠??</t>
-  </si>
-  <si>
-    <t>제목 똑바로 써라</t>
-  </si>
-  <si>
-    <t>봉도동이라고 쓴이유는  제목 틀렸다고 댓글쓰러오면  조회수 늘어나기 때문?</t>
-  </si>
-  <si>
-    <t>어휴 기레기</t>
-  </si>
-  <si>
-    <t>기자분. 기사쓰고 확인도. 안하시나.</t>
-  </si>
-  <si>
-    <t>궁금한게  있는데요..북한이 더 나빠요.일본이 더 나빠요.대한민국은 적이 왜이리 많나요?</t>
-  </si>
-  <si>
-    <t>어제 잘 봤음 그때나 지금이나 별반 차이 없는 것들 이놈의 나라는 국민이 지키고 말아먹는건 정치인들 그리고 그걸 노리는 쪽바리들</t>
-  </si>
-  <si>
-    <t>6.25때 북한에서 남한인구 죽인숫자 알수있을까요?</t>
-  </si>
-  <si>
-    <t>다원아 봉오동...</t>
-  </si>
-  <si>
-    <t>백만 돌파 축하합니다~</t>
-  </si>
-  <si>
-    <t>돈 받고 쓰는 기사에..무료티켓들 뿌려대고 지랄들 했겠지..지금 살아계신 독립운동가들 처우나 잘해주고 영화를 찍던지..</t>
-  </si>
-  <si>
-    <t>봉도동은 어디 수도권 동  이름임?</t>
-  </si>
-  <si>
-    <t>오늘 또 북이 발사체인가 쏘았다고 하는데..한국이해야 할 일은 북을 해결한 다음에 한국이 급속도록 성장해서 일본경제를 앞지르는게 해야 하는일 아님? 일본의 과거사 사과를 그렇게 요구하면서도 오늘날까지도 한국을 위협하는 북에 대해서는 왜 이렇게 한국영화계가 조용하지? 반일조장만들어서 총선에 이득보려는 자? 문건 나왔다고 했지?</t>
-  </si>
-  <si>
-    <t>됐고 제작진은 할미꽃 살려내라</t>
-  </si>
-  <si>
-    <t>역사팔이,국뽕 영화</t>
-  </si>
-  <si>
-    <t>봉도동??? 또 여자구나. 기자의 탈을 쓴 알바일듯...</t>
-  </si>
-  <si>
-    <t>우리 국민들이 봤으면 좋겠네요우리 조상들이 어떻게 나라를 지켰는지...우리가 이렇게 살수 있는건  조상들의 희생과나라사랑하는 마음  그한마음 감사하고 또 감사하는 마음으로  살았으면 합니다</t>
-  </si>
-  <si>
-    <t>100만 돌파 축하합니다 앞으로 더 많은 관객들이 보고 함께 느끼길</t>
-  </si>
-  <si>
-    <t>제작사 배급사는 좋겠네. 선동꾼들 홍보 제대로 해주니깐 ㅋㅋ</t>
-  </si>
-  <si>
-    <t>역사교육을. 강화한다. 는 뉴스를 보았네요.   젊은친구들. 필람무비 입니다.</t>
-  </si>
-  <si>
-    <t>봉수동 전투 잼납니다</t>
-  </si>
-  <si>
-    <t>영화 재밌게 잘봤음  우리관에선 박수터져나왔음 ㅠ 후반엔딩부분 소름이 쫘악  학생부터 나이 지긋하신분들까지  연령대도 다양하시네요  솔직히 대한민국 국민이라면 봐야한다 감동ㅠㅠ</t>
-  </si>
-  <si>
-    <t>정말  재밌어요  꼭 보세요^^</t>
-  </si>
-  <si>
-    <t>잘만든 영화 왜곡시키는 일부 사람들 도대체 무슨의도인지 궁금합니다 일본군의 잔인함은 영화에서 보여지는것 보다 훨씬 더잔인했다고 합니다 보는내내 치를떨며 봤는데 이런영화 흠집내려는 세력들 꼭 처벌했음 좋겠네요</t>
-  </si>
-  <si>
-    <t>꼭보세요ㅜㅜ</t>
-  </si>
-  <si>
-    <t>여러 전투가 모여  봉오동전투로 마무리. 전쟁영화,전투영화를 이렇게 재밌게 만들다니~ 꿀잼~~</t>
-  </si>
-  <si>
-    <t>배우들 케릭터가 진짜  철떡같더라...어쩜 배역하나하나를.그렇게.잘소화하는지...유해진님때문에 본거지만 다들 너무 최고..일단 재미잇슴</t>
-  </si>
-  <si>
-    <t>이거 괜춘함 볼만하더라</t>
-  </si>
-  <si>
-    <t>봉오동전투 정말 최고영화에요. 가슴뜨겁게 너무너무 잘봤습니다. 유해진 배우 최고에요</t>
-  </si>
-  <si>
-    <t>근데 요즘은 100만은 우스운거같다~ 영화관도 많이 생겼고 또 생기고있고 영화보러다니는 인구도 늘었어~ 가족끼리도 많이보고.. 그래서 100만은 놀랍지도않음</t>
-  </si>
-  <si>
-    <t>그나저나 제작사는 왜곡 유언비어 퍼뜨린 사람 고소해야 되는거 아닌가?</t>
-  </si>
-  <si>
-    <t>봉오동 전투 진짜 긴장하며 봤어요.여운도 남네요 ㅠㅠ 좋은영화 더 잘되길!</t>
-  </si>
-  <si>
-    <t>감동은 있어도 재미는 별로 없을줄 알았는데 재미도 있더라 역시 유해진×류준열 조합은 최고다</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋ토착왜구들 전부 몰려와서 싫어요 찍고 악플다는거 봐라 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 진심 역겹다</t>
-  </si>
-  <si>
-    <t>지금 타이밍은 "일본침몰" 개봉하면 대박 나는겨~</t>
-  </si>
-  <si>
-    <t>많은 대중들이  별생각 없이 그저 저렴하고 가까워서 좋은 일본관광가고 가성비 좋아 일제 쓰던 착한 국민들에게 아베가 경제 제재라는 폭탄을 던지기전엔.. 아무도 숨겨져있던 반일 의식을 꺼낼생각조차 안했었지.. 하지만 말야.. 전쟁이란게 터지면 집단의식은 걷잡을수없는게 총칼들고 뛰던 과거 전쟁과 틀릴뿐.. 스포츠나 경제등으로 과거의 전쟁을 대신하는거니..</t>
-  </si>
-  <si>
-    <t>난 지금까지 봉오동 전투인줄 알았네ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>역사공부가 필수가 아니었던 세대들이 슬슬 직업전선에 들어오기 시작했구나....</t>
-  </si>
-  <si>
-    <t>국뽕도 좋은데 구라는 정도껏. 이러다가는 솔방울 수류탄도 믿을 기세 ㅋㅋ</t>
-  </si>
-  <si>
-    <t>하아....한국영화는 언제까지 관객수 구걸할래? 진짜 너무 수준 떨어지고 재미도 없는데 대부분이 애국심 유발하며 푯수 구걸하자나?! 한심하다.</t>
-  </si>
-  <si>
-    <t>반일영홬ㅋㅋ 반중반북영화는 왜 안만들까 죄다친중친북색기들뿐이 없으니 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>독립운동도 싫어하는 일베ㆍ틀딱 클라스 그러니 니들이 토착왜구ㆍ친일파 이완용 소리 듣는거다</t>
-  </si>
-  <si>
-    <t>봉도동은 대한민국 어디에 있는 동이냐</t>
-  </si>
-  <si>
-    <t>왜 이왕 하는거 붕어동이라고 하지 그래??</t>
-  </si>
-  <si>
-    <t>봉도동은 어디동이냐?ㅋ 봉오동이다</t>
-  </si>
-  <si>
-    <t>봉도동.왜 도봉구라고하지ㅋㅋㅋㅋㄱㅋㄱㄱㄱㄱ도봉구 도봉동전투</t>
-  </si>
-  <si>
-    <t>사람은누구나 실수하는법입니다</t>
-  </si>
-  <si>
-    <t>내가 본 관에서는 마지막에 박수가 터져나왔음 뭉클하고 좋았다 중간중간 코믹요소도 적절하고 마지막 전투씬은 진짜 역대급이였음 진짜 멋지고 짠하고 아주 난리였음 봉오동전투 더 흥해라</t>
-  </si>
-  <si>
-    <t>보면서 너무 화나고 마음아파서 눈물났어여 ㅠㅜㅜㅠ유머러스한부분도 잇구 잘봤어용</t>
-  </si>
-  <si>
-    <t>가슴먹먹해졌어요.....ㅠㅠ 영화 넘 잘 봤습니다^^ 많은 분들이 보셨으면 하는 영화..</t>
-  </si>
-  <si>
-    <t>내용은 별로없고 2시간내내 총쏘고 달리는 영화라는데. 반일운동에 휩쓸려 대운이 터졌네. 평소 같으면 퀄리티 떨어져 안볼텐데 운수대통 했군.</t>
-  </si>
-  <si>
-    <t>두시간 넘는 시간이었는데도아들이 지루해하지않고 끝까지재밌게 잘봤어요~</t>
-  </si>
-  <si>
-    <t>가슴이  울컥한 영화</t>
-  </si>
-  <si>
-    <t>너무재밌고감동이였어요</t>
-  </si>
-  <si>
-    <t>일베 토착왜구들이 그렇게 방해를해도 될놈될이다</t>
-  </si>
-  <si>
-    <t>ㅋㅋ역시 일베. 이 영화는 당연히 정치쇼와 결부 시킬거라 예상은 했다만 징하네. 진짜 왜 그러고들 사니?</t>
-  </si>
-  <si>
-    <t>유혜진 가렌 류준열 케이틀린 마지막소름</t>
-  </si>
-  <si>
-    <t>북한선전영화인줄알았어요.. 저희 아직 주적은 북한아닌가요? 6.25 전쟁으로 희생한 저희 할아버지가 하늘에서 울고 계실거 같습니다.</t>
-  </si>
-  <si>
-    <t>엄복동 지금 나왔으면 천만이라니까 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>좋은 영화에요^^ 많이들 봐주세요~~</t>
-  </si>
-  <si>
-    <t>국뽕이면 오글거릴거 같아서 걱정했는데, 다행히 그냥 멋진 전투영화였음. 명량보다 대단해 보였다는.</t>
-  </si>
-  <si>
-    <t>보세요 두번보세오 꼭보세요 ㅠㅠㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>???: 봉도동전투라니. 기자 역사왜곡하네. 평점 1점. 이건 악플이 아닌 피드백입니다.</t>
-  </si>
-  <si>
-    <t>일베들 몰려왔냐?ㅋㅋ 영화 좋더만</t>
-  </si>
-  <si>
-    <t>한국 영화지만 북한 말투는 왜 나와? ㅋ ㅋ</t>
-  </si>
-  <si>
-    <t>좌빨 영화는 멀 해도 티가 난다</t>
-  </si>
-  <si>
-    <t>봉오동 또 보러 가야지 자꾸 아른거림</t>
-  </si>
-  <si>
-    <t>영화 잘 만들었음.눈물..</t>
-  </si>
-  <si>
-    <t>개 10 노잼... 언플보소ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>제목고쳐주세요.진짜너무하네..오타 확인도없이 올리는 기사라니..</t>
-  </si>
-  <si>
-    <t>가뜩이나 요즘 쪽바리땜에 열받는데..저 영화까지 보면 가슴이 텅빌것 같다. 현실은 영화보다 더 잔인하다는것을 알기에..</t>
-  </si>
-  <si>
-    <t>전투씬 쾌감 쩔어요. 큰 상영관에서 보길!!!</t>
-  </si>
-  <si>
-    <t>봉오동 전투 감동적이면서도 진짜 재미있었음. 유해진 웃기고 울리고 멋있고.. 류준열은 그저 눈물만.. 일본배우들 출연 결정 쉽지 않았을텐데 너무 고마움. 가족들하고 또 보러 갈 예정</t>
-  </si>
-  <si>
-    <t>현재시국에 딱이네여유&amp;류배우님 보러 빨랑 가야죠두근두근...</t>
-  </si>
-  <si>
-    <t>열등한 일본 쪽바리들이 위대한 한글 배워서 네이버를 놀이터 삼음. 일본 잘못 지적하는 글 기사 영화 드라마 뭐든 화나요나 반대 찍음.</t>
-  </si>
-  <si>
-    <t>개노잼 영화인데 시기를 잘타서 개봉해가지고 득보네</t>
-  </si>
-  <si>
-    <t>이정권에서 태극기휘날리며 개봉했으면 아마 좆망했을듯</t>
-  </si>
-  <si>
-    <t>재미나게 잘봤어요~~</t>
-  </si>
-  <si>
-    <t>천만갔으면</t>
-  </si>
-  <si>
-    <t>멋지십니다^*감동적이고  강렬한 영화  그  느낌  잊지  않겠습니다^^</t>
-  </si>
-  <si>
-    <t>봉도동 전투 ㅋ</t>
-  </si>
-  <si>
-    <t>오타. 헐</t>
-  </si>
-  <si>
-    <t>그냥 봉천동이라하지 그랬냐...</t>
-  </si>
-  <si>
-    <t>봉도동은 기자가 실거주하는 동네인듯</t>
-  </si>
-  <si>
-    <t>봉천동전투냐 빨리교정해</t>
-  </si>
-  <si>
-    <t>상도동 옆에 봉도동...</t>
-  </si>
-  <si>
-    <t>기자가 역사공부도 안했나보군~단순오타인지 ~ 진짜 모르고 적었다면 심각하다반성해야된다~ 아베의나라 일본으로가든가</t>
-  </si>
-  <si>
-    <t>상도동 근처 봉도동?</t>
-  </si>
-  <si>
-    <t>봉오동전투 진짜ㅠㅠㅠㅠㅠ영화 미쳤어ㅠㅠ</t>
-  </si>
-  <si>
-    <t>게임의 매력과 역사서의 매력을 동시에 잡음</t>
-  </si>
-  <si>
-    <t>완전 잼나게 봄. 이런 영화가 천만가야함. 저 방해세력들 득실거리니 한번 더 볼까?</t>
-  </si>
-  <si>
-    <t>천만가즈아광복절에 천만기록하면 정말 감격일텐데</t>
-  </si>
-  <si>
-    <t>개씹 좌좀 쓰ㄹ기 선동영화 미친 양아치 영화 역사 왜곡에 조같은 영화 ... 이상 보고온 소감</t>
-  </si>
-  <si>
-    <t>국뽕과 반일감정의 타이밍이 좋아 흥행중ㅋㅋ 저런 거 볼 시간에 역사 강의 1시간 보는 게 더 재밌다</t>
-  </si>
-  <si>
-    <t>정말 잼있습니다 강추합니다~  천만은 쉽게 넘을거같네요 국뽕쩝니다~~~강추!</t>
-  </si>
-  <si>
-    <t>ㅋㅋ역시 국뽕ㅋㅋㅋㅋ개돼지들은 역시 국뽕상업영화에 취하지ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>역사는 무비판적으로 선조들의 훌륭함을 숭배하고 민족적 자긍심을 고취하는 수단이 아니다. 있던그대로의 사실(잘 잘못 모두)을 배우고 후대에 같은 실수를 하지않기 위해서다. 그런 의미에서 최근 몇년간 개봉된 독립운동영화는 민족적자긍심 고취와 반일감정을 증폭하는 훌륭한 도구요 선전물이다. 괴벨스조차 하늘에서 소름이 돋은 채 박수를 보낼만큼 눈이뒤짚힌 광기의 파시즘 시대에 살고있다.  조지오웰이 경고한 빅브라더시대가 도래하고있다.</t>
-  </si>
-  <si>
-    <t>영화 보고 울컥했음..꼭 봐야하는 영화</t>
-  </si>
-  <si>
-    <t>국뽕 종족주의 파시즘 선동영화. 개돼지들 선동하기 참 쉬워.</t>
-  </si>
-  <si>
-    <t>이거 뭔가가 있어 왜 이시점에 일본소재 영화들이 판을치지? 영화제작기간이 최소 1년이상 걸릴텐데 이것도 문재인이가 이미 일본에서 이렇게 나올줄 알고 있었던거고 여러 영화사에 미리 제작 주문시켜놓고 이시점에서 개봉시키는거 같은데 이것도 내년 총선대비용???</t>
-  </si>
-  <si>
-    <t>빨갱이들 손에 들어갈 돈인데..독립운동가분들께 기부나 하자고</t>
-  </si>
-  <si>
-    <t>꼭보세요~^^</t>
-  </si>
-  <si>
-    <t>역사적 사실을 기반으로 다룬 영화에 무조건적으로 재미 운운하는 것들은 니들 인생을 기반으로 영화만들면 뭐 코미디 나올거 같냐? 이 영화를 왜 만들었는지 왜 이런 영화가 만들어지게 됐는지 사실을 바탕으로 역사를 그린 영화다.</t>
-  </si>
-  <si>
-    <t>국뽕이고 뭐고 영화가 존나 지루</t>
-  </si>
-  <si>
-    <t>봉오동 존잼</t>
-  </si>
-  <si>
-    <t>재밌고 감동적이었어요</t>
-  </si>
-  <si>
-    <t>색다름이 있는 영화네....유 해진 배우 참 연기 잘 한다.....</t>
-  </si>
-  <si>
-    <t>일본 150명의 사상자를 낸 소규모 전투를 큰 사건으로 미화시키는 것도 문제!   일종의 게릴라전으로 첫 승리라는게 의미가 있지만 이후 대규모 일본군의 만주진입이라는 빌미를 제공...</t>
-  </si>
-  <si>
-    <t>토착왜구와 일베가 이 영화 보고,  자기들의 입지가 좁아지고 아베님이 힘들어 할까봐 열심히 깎아내리지만,  본 사람들은 영화의 진정이 와 닿았기에 실 관람객 호평이 줄을 있는거다.  영화관에서 엔딩때 박수나오는 영화  오랜만이네.</t>
-  </si>
-  <si>
-    <t>때를 잘만났네</t>
-  </si>
-  <si>
-    <t>봉오동  전투 금요일에 보고 왔는데 조상님들께다시 한번 우리나라 대한을 되찾게 해주셔서 감사하다 하고싶어요그리고 유해진 배우님 팬이 되어버렸네요</t>
-  </si>
-  <si>
-    <t>기레기 느그 서장 봉도동 살제~!?!</t>
-  </si>
-  <si>
-    <t>그저 그럼.</t>
-  </si>
-  <si>
-    <t>일주일전에 개봉한 엑시트 400만 기냥 넘었던데??ㅎㅎ</t>
-  </si>
-  <si>
-    <t>아직 정보업뎃 안된 토착왜구들 왤케 많아ㅋㅋ 할미꽃 서식지에서 촬영한거 아니라고 정정기사 올라온지가 언젠데.... 죽을 때도 할미꽃 할미꽃 하면서 죽을듯</t>
-  </si>
-  <si>
-    <t>국뽕 맞고도 진짜 못봐주겠더라. 에혀... 지금 분위기 아니었으면 UBD에 이어 BOD 탄생할 뻔...</t>
-  </si>
-  <si>
-    <t>영화개봉 타이밍 한번죽이네요~먼가의도된? ㅋ ㅋ ㅋ</t>
-  </si>
-  <si>
-    <t>기대만큼은 실망도 큼...</t>
-  </si>
-  <si>
-    <t>イルベ,土着の倭寇みんな集まって怒ります。撮るの見てね。</t>
-  </si>
-  <si>
-    <t>일베, 토착왜구 모두 몰려와 화나요 찍는거 봐ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>518보다 못한 독립군 후손 처우</t>
-  </si>
-  <si>
-    <t>국뽕영화 지긋지긋 북괴간첩들 소탕하는 영화는 좀 없나</t>
-  </si>
-  <si>
-    <t>이 기사를 엄마부대가 싫어합니다.</t>
-  </si>
-  <si>
-    <t>지금시기가 아니어도  보고싶지 안ㅆ나승리의 전투 를</t>
-  </si>
-  <si>
-    <t>볍.싄.년</t>
-  </si>
-  <si>
-    <t>그래 천만 가자배우들 산에  뚸는것만 봐도 존경과 감탄이!!마지막에 감동이  !!류준열   멋지이세배우들  조합이   매우 좋다</t>
-  </si>
-  <si>
-    <t>오타낼수도 있지 하여튼 냄비근성들...물고늘어지기는 오죽하면 기자가 수정했겠냐...ㅋ</t>
-  </si>
-  <si>
-    <t>키아~ 주모!</t>
-  </si>
-  <si>
-    <t>일본군 부랄 따이는게  난 왜 자꾸 생각나지?</t>
-  </si>
-  <si>
-    <t>청산리전투가 아니라 봉오동으로 소재한것도 그렇고, 영화자체도 노잼</t>
-  </si>
-  <si>
-    <t>시기적으로 참 적절한 영화</t>
-  </si>
-  <si>
-    <t>영화 재밌어요!!! 추천합니다</t>
-  </si>
-  <si>
-    <t>영화 소감 : 군함도 vs 봉오동</t>
-  </si>
-  <si>
-    <t>봉오동이   잼나나요 ,  엑시트가 잼나나요?</t>
-  </si>
-  <si>
-    <t>꺼억 취한다 ㅋㅋ 민족주의 극우영화 많이봅시다</t>
-  </si>
-  <si>
-    <t>럭키엄복동이네</t>
-  </si>
-  <si>
-    <t>봉도동</t>
-  </si>
-  <si>
-    <t>영화개봉 타이밍 굿이다 ㅎ 인정 ㅎ</t>
-  </si>
-  <si>
-    <t>상사한테 줘터져서 봉도동을 봉오동으로 수정하셨나보네요..ㅋㅋ 다른 기사보다 빨리써서 올려야 하는 거는 좋지만 타자속도만 믿고 너무 확인 안하고 올리시지는 마십시요..</t>
-  </si>
-  <si>
-    <t>요즘기자들은 빡대가리여야 입사시켜주나봐몇일전에는 (내로라) (내노라) 아직 한글도 제대로 모르고 막 스즈끼던데이번에는 봉도동이네</t>
-  </si>
-  <si>
-    <t>재밌네 봉도동 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>새로. 신설된. 동입니까?봉도동. 거긴 집값이 어떤가요!?</t>
-  </si>
-  <si>
-    <t>오타</t>
-  </si>
-  <si>
-    <t>봉도동?? 기자야 눈좀 떠라</t>
-  </si>
-  <si>
-    <t>반일코인 실패</t>
-  </si>
-  <si>
-    <t>봉도동ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>요즘 기자라는것들 대가리가 제대로 한글도 모르고 에라이</t>
-  </si>
-  <si>
-    <t>노린거냐 기자야</t>
-  </si>
-  <si>
-    <t>이런게 역사왜곡아니냐 봉도동이라니</t>
-  </si>
-  <si>
-    <t>봉도동??? 차라리 개봉동이라 해라!!!!</t>
-  </si>
-  <si>
-    <t>기자생퀴 자냐  상도동전투냐  오타도안보고올리냐 카톡도 오타확인하는데</t>
-  </si>
-  <si>
-    <t>봉도동 뭐냐 ㅋㅋ? 기자는 국사공부 안하냐 ㅋㅋ?</t>
-  </si>
-  <si>
-    <t>헤드라인 정도는 확인 좀 해라</t>
-  </si>
-  <si>
-    <t>글씨틀렸다  기사를 안쓰는게 낫지..기사쓰고 마지막에 읽어봐야 정상 아닌가</t>
-  </si>
-  <si>
-    <t>기자수준ㅋㅋㅋㅋㅋ 개무식</t>
-  </si>
-  <si>
-    <t>경향수준...봉도동...</t>
-  </si>
-  <si>
-    <t>헐~~~~~ 역사 1도 모르시는 기자님!!!</t>
-  </si>
-  <si>
-    <t>빠빨간맛 궁금해 허니</t>
-  </si>
-  <si>
-    <t>제목 오타 잖아</t>
-  </si>
-  <si>
-    <t>큭 제목 어그로. ㅋㅋㅋ 기자양반 한건했수다 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>제목부터 바꿔주세요~~~</t>
-  </si>
-  <si>
-    <t>최소한 기사를 써먼  확인한번 하고 올려야지회사 결재서류  이렇게 올리면 욕바가지로들을거 같은데</t>
-  </si>
-  <si>
-    <t>도동 도동 봉도동 장난치나다원아 정신차려</t>
-  </si>
-  <si>
-    <t>총쏘고뛰는 2시간영화ㅋㅋ</t>
-  </si>
-  <si>
-    <t>새 영화 개봉한 줄. 제목이라도 좀 다시 읽어보고 업로드 하지. ㄱ레기 수준이다 이게</t>
-  </si>
-  <si>
-    <t>“봉오동 전투” 입니다.</t>
-  </si>
-  <si>
-    <t>의도된 제목 오타 ㅋㅋ 기자분 댓글 수 올리기 성공적!모르고 댓글다신 분들 ㅎㅎㅎㅎ</t>
-  </si>
-  <si>
-    <t>도봉구 봉도동이냐?ㅋ</t>
-  </si>
-  <si>
-    <t>봉도동은 어디에요??</t>
-  </si>
-  <si>
-    <t>기레기야 제목은 똑바로 써야지</t>
-  </si>
-  <si>
-    <t>와 진짜 기사를 발로쓰는거 맞네</t>
-  </si>
-  <si>
-    <t>봉천동 옆에  봉도동</t>
-  </si>
-  <si>
-    <t>조회수 올리려는 기발한 생각</t>
-  </si>
-  <si>
-    <t>봉도동은 어느동네죠</t>
-  </si>
-  <si>
-    <t>봉도동이요???</t>
-  </si>
-  <si>
-    <t>제목 여태 안고치네? 봉도동에 일있나봐?</t>
-  </si>
-  <si>
-    <t>봉도동이라고 쓴 기자 ㅂㅅ임</t>
-  </si>
-  <si>
-    <t>경향은 스포츠도 어용이냐? 기자 돈 얼마 처먹고 이딴 글을 싸발기나</t>
-  </si>
-  <si>
-    <t>기자 진짜 한심하다.. 오타도 정도껏 내야 이해를 할텐데..기사내는 사람이 오타 체크도 안하나요?기본도 안된분이네요</t>
-  </si>
-  <si>
-    <t>봉도동이아니고 봉오동이다 기자쉐이야</t>
-  </si>
-  <si>
-    <t>기사 쓸때는 영화제목 정도는 똑바로 알고 써주세요 급한기사도 아니고 오타정도는 확인할 시간이 충분했을텐데...</t>
-  </si>
-  <si>
-    <t>내가 따먹어 버리기 전에 오타 수정 ㄱ</t>
-  </si>
-  <si>
-    <t>도봉동 이라고 하지 ㅋ</t>
-  </si>
-  <si>
-    <t>어제 보고 왔어요~역시나  이장하는 멋있더라구요♡</t>
-  </si>
-  <si>
-    <t>봉천동 하고 상도동 사이인가? 봉도동..</t>
-  </si>
-  <si>
-    <t>오타좀확인바랍니다</t>
-  </si>
-  <si>
-    <t>이다원기자 한글 몰라요? ㅉㅉ</t>
-  </si>
-  <si>
-    <t>기자야 역사공부다시해라</t>
-  </si>
-  <si>
-    <t>류준열이 불사신으로 나온다던데 사실인가요?</t>
-  </si>
-  <si>
-    <t>봉도동 : 평안남도 대동군 덕화리의 동남쪽에 있는 마을. 본래 평원군 덕산면에 소속된 리였는데, 1952년에 리가 폐지되면서 마을이름으로 이용되고 있다. 벌섬동이라고도 한다.-네이버 지식백과 출처</t>
-  </si>
-  <si>
-    <t>봉오동이야? 상도동이야? 기자야 하나만 해 하나만</t>
-  </si>
-  <si>
-    <t>제목 좀 수정하시지요.</t>
-  </si>
-  <si>
-    <t>다시써라</t>
-  </si>
-  <si>
-    <t>봉도동은 어느 전투니 ㅋㅋ</t>
-  </si>
-  <si>
-    <t>기자 자요?</t>
-  </si>
-  <si>
-    <t>봉도동 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>저런 멍청한</t>
-  </si>
-  <si>
-    <t>봉도동 봉도~도오옹~ 봉도 봉도~ 봉도 봉도동! 봉도동에 왔다~</t>
-  </si>
-  <si>
-    <t>봉도동이 어디요?</t>
-  </si>
-  <si>
-    <t>봉도동~~ 도동~~~</t>
-  </si>
-  <si>
-    <t>제목부터 오타는.. 넘하네...쩝!</t>
-  </si>
-  <si>
-    <t>봉도동ㅋㅋㅋㅋㅋㅋㅋㅋ ㅈㄴ귀엽네 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>우리 태형이 #Winerbear 노래 넘 좋다 바쁜 해투일정에 아름다운 뮤비까지 고마워 보라해 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>어떤 영화를 보고 썼을까 클래식하고 여운 있는 아름다운 영화였을꺼야 분명 태형아 노래 너무 좋아 진짜 너란 아이 항상 상상을 뛰어넘는다 방탄소년단 뷔 음유시인</t>
+  </si>
+  <si>
+    <t>한여름의 윈터베어방탄소년단 뷔 곰돌이가 주는 따듯한 선물</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 자작곡 선물 너무 고마와  해투 바쁜데 이런 자작곡 선물을 우리에게 줄 준비를 했었다니 감동적이야... 목소리도 노래도 사진도 영어 가사도 너무 아름답고 들을수록 더 빠져드는 힐링곡이야. 뷔의 아티스트로서 행보를 늘 응원해!!</t>
+  </si>
+  <si>
+    <t>영어가사로 써준거 글로벌 팬들에게 보내고 싶은 너의 마음이 너무 잘 전달돼</t>
+  </si>
+  <si>
+    <t>투어다니는 틈틈히 이런곡에 대한 영감을 떠올릴수 있는 방탄소년단 뷔의 음악적 감각에 또 놀라네요멋있고 아름다운 곡으로  우리에게 멋진 선물을 준 뷔! 고마워요. #WinterBear 최고예요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너무나 아름다운곡 눈물이난다 방탄소년단 뷔 보라해 글구 고마워 </t>
+  </si>
+  <si>
+    <t>방탄소년단뷔 25세 아이돌이띾엔 믿기지않는 역량이네요  62개국트렌딩에 50개국이상 1위라니  유툽도 벌써 300만훌쩍넘었어오 와 대단</t>
+  </si>
+  <si>
+    <t>참으로 아름답고 사랑스러운 곡입니다.방탄소년단 뷔의 아미사랑 끝이 없네요.뮤직비디오도 직접 만들었답니다.투어중에 그리 힘들었을텐데꿈같은 선물을 해준 김태형은 사랑입니다.뷔, 김태형은 온 우주의 보물입니다.PurpleYou1000</t>
+  </si>
+  <si>
+    <t>아미 사랑둥이 김태형.방탄소년단 뷔는아미들의 상징어 ‘아이퍼플유’ 발언 공개 1,000일을 맞아 ‘WinterBear’를 공개헌 것 같습니다.이곡이 공개되기 직전까지전세계 아미들은 #IPurpleYou1000 트윗으로전세계 실시간 트랜드 1위를 만들었는데그 시점에 ‘윈터베어’를 공개한거죠.꿈같은 음악선물.고맙고 응원하고 지지합니다.‘아이퍼플유1000’</t>
+  </si>
+  <si>
+    <t>오늘 새벽울 태형이가 ‘윈터베어’ 공개하자 또 다시 전세계 SNS 발칵 뒤집혔습니다.잠못들고 책상 앞에 앉아 있었던 덕에그 현장을 또 생생하게 목격했습니다.실시간 전세계 트랜드 1위 #‘WinterBear'’2위는 #IPurpleYou1000둘 다 울 소중한 태형이를 위한 트윗이었습니다.황홀하게 행복했습니다.</t>
+  </si>
+  <si>
+    <t>팀내 1인자 댄서는 아닐지라도 가장 매력적인 춤선을 가진 사람을 꼽으라면 주저없이 방탄소년단 뷔라고 하겠음!!! 크고 화려한 동작도 눈을 끌지만 손끝까지 리듬감을 놓치지 않고 본능적으로 박자를 맞추는 정확함에 놀람</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 자작곡 최고예요 너무 좋아요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 자작곡 노래는 항상 깊은 울림이 있어 좋다 풍경. 네시. 시티그마. 잡아줘 . WinerBear까지 최고의아티스트</t>
+  </si>
+  <si>
+    <t>음유시인 방탄소년단 뷔의 감성 보라해</t>
+  </si>
+  <si>
+    <t>바쁜 투어중에도 멋진 흔적을 남겨준 방탄소년단 뷔~ 예쁜 영상과 노래를 선물해줘서 고마워요 보라해요</t>
+  </si>
+  <si>
+    <t>깜짝 선물 넘 고마운데.. 앞으론 이렇게 좋은곡 무로음원 말구 모아서 믹스테입으로 내줬음 해~♡ 겨울에 태어난 울곰도리 고마워^^ 방탄소년단 뷔!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 자작곡 winter bear 너무 좋아요 </t>
+  </si>
+  <si>
+    <t>멋지게 성장하고 있는 아티스트 방탄소년단 뷔 정말 최고다</t>
+  </si>
+  <si>
+    <t>.진짜 노래 왜 이렇게 아름다운거야 방탄소년단 뷔 윈터 베어가 막 내 가슴속을 후비고 파고 들잖아 울컥하게 ㅠㅠ 뷔 진짜 천재야 아름다운 노래 선물 고마워 사랑해 보라해~♡ #WinterBear  #BTSV #Taehyung #방탄소년단뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 의 목소리는 내가 가장좋아하고, 너무 특별하다.</t>
+  </si>
+  <si>
+    <t>이 아름다운 곡을 만든 작사가와 작곡가이자 곡을 가창하는 가수, 이 아름다운 곡을 한 장의 사진으로 기가 막히게 표현해낸 앨범 커버 포토그래퍼이고, 이 아름다운 곡을 탁월한 능력으로 영상화시킨 뮤직비디오 연출가이며, 연출가의 의도를 찰떡같이 이해하고 천상의 아름다움으로 뮤직비디오의 완성도를 높힌 천재적 연기력의 배우 이 모든 걸 방탄소년단 뷔 혼자서 해냈다니 정말 태형이는 존재 자체가 감사해요.</t>
+  </si>
+  <si>
+    <t>잡아줘 런(Run) 네시 풍경 윈터베어 방탄소년단 뷔가 지금까지 썻던 곡들 대단하고 자랑스럽다 최고의 아티스트 뷔 김태형 항상 보라해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔. 그의 음악적 역량에 또 한번 놀라고 가슴설래네요. 잔잔하지만 깊은 감성이 베어있는 가슴시리게 좋은 곡이네요. 밤새 듣고 듣고...또 들었습니다. 훌쩍이며... 좋아서, 감동해서.</t>
+  </si>
+  <si>
+    <t>#방탄소년단 #뷔 #방탄소년단 뷔 #bts 뷔 #김태형 #V #BTSV 방탄 소년단 뷔 작은시 입덕 직캠 단기간 최초 기록 축하합니다 웃으면 서 잔망 잔망 살랑살랑 하루 종일보고 있어도 재밌고 신나는 직캠인데 기 록 세울 줄 알았어요 역시 우리 태형이 최고 다</t>
+  </si>
+  <si>
+    <t>태형아 사랑해</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 는 놀라운 마음을 가지고 있다.그가 진정성을 표현하기 위해 전하는 말은 언제나 독창적이고 잊을 수 없는 것이다.보라해 방탄소년단 뷔!   #BTSV #V #Taehyung #방탄소년단뷔 #방탄소년단 #뷔 #KimTaehyung #김태형  #태형 #purpleyou1000 #WinterBear </t>
+  </si>
+  <si>
+    <t>난 지금 감탄할수박에... 방탄소년단 뷔가 이렇게 멋잇고 이쁜데 나보고 어떻하라고ㅜ ㅜ</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔의 목소리와 우아한 감성이 곡과 뮤직비디오에 고스란히 녹아든 것이다..</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 정말 자랑스러워요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 자작곡 선물 너무 고마와  해투 바쁜데 이런 자작곡 선물을 우리에게 줄 준비를 했었다니 감동적이야... 목소리도 노래도 사진도 영어 가사도 너무 아름답고 들을수록 더 빠져드는 힐링곡이야. 뷔의 아티스트로서 행보를 늘 응원해</t>
+  </si>
+  <si>
+    <t>Korea is lucky, because it have an artist like him,,talented and charismatic, He is different and creative , he stealing  the eyes and his voice melting the heart.He is truly unique and loved all over the world, we Arabs are stuck in his magic  #BTSV 방탄소년단 뷔#winterbear</t>
+  </si>
+  <si>
+    <t>음악도 영상도...멈추질 못하겠어...방탄소년단 뷔...나에게 불면의 시간을 선물해줬구나~~</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 김태형의 순수하고 아름다운 감성을 보라합니다✨✨</t>
+  </si>
+  <si>
+    <t>좋은 곡 넘 좋아요  방탄소년단 뷔^^</t>
+  </si>
+  <si>
+    <t>음악도 영상도 아름다워요. 태형이만의 감성 너무 고맙고 좋아요번역보기</t>
+  </si>
+  <si>
+    <t>한여름의 윈터베어 방탄소년단 뷔 곰돌이가 주는 따듯한 선물</t>
+  </si>
+  <si>
+    <t>우리 태형이 #Winerbear 노래 넘 좋다 바쁜 해투일정에 아름다운 뮤비까지 고마워 보라해 방탄소년단 뷔❤❤</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 깊은 감정을 가진 아름다운 노래를 만들었습니다. 그의 매우 재능이 있습니다. 이제 그는 뮤직 비디오 감독이며 외국어로 노래를 썼습니다. 그가 된 예술가의 자랑#방탄소년단뷔 #뷔 #BTSV</t>
+  </si>
+  <si>
+    <t>#방탄소년단 뷔#의 뛰어난 음악적 재능과 감성이 그대로 녹아들어 있는 'Winter Bear'의 '음원'과 유튭 '뮤비' 다 넘 좋네요^^</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔 소중한 영상 영국투어때 보았다는 노팅힐 이프온리 꼭 볼께~~태형이 감성따라 가볼께~~</t>
+  </si>
+  <si>
+    <t>방탄밤 영상 떳길래 그냥 내용도 모르고 클릭했는데 무려 방탄소년단 뷔님의 자작곡이라니!  가슴따뜻해지는 감동의 순간이었음. 너무 아름다워  나도 모르게 빠져 보고 있었음</t>
+  </si>
+  <si>
+    <t>노래 영상 모델 감독 모든게 완벽허네요</t>
+  </si>
+  <si>
+    <t>특유한 목소리도 그렇고 그냥 타고난게 특이한 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 어떡하면좋니 눈물나게 좋은곡 진짜 울 태형이는 특별했어 남들과 다른감성T^T#winterbear❄️❄️❄️</t>
+  </si>
+  <si>
+    <t>아무말도 필요없이 방탄소년단 뷔는 이뻐</t>
+  </si>
+  <si>
+    <t>사랑스런 방탄소년단뷔 김태형 ~이러니 사랑안할 수가 있나요 넘 좋아요 winter bear 많이 들을게고마워요</t>
+  </si>
+  <si>
+    <t>호평대로 음률, 가사, 비주얼 모든 면에서 믿을 수 없을 만큼 아름다운 뮤직비디오!! 맞아요 이 모든게 완벽한 노래 특히 방탄소년단 뷔 특유의 감성까지 더해져 더 아름다운 노래 Winter Bear 노래 선물 고마워 진짜 보라해 1000일 기념곡으로 딱이야 보라해 방탄소년단 뷔♡ #WinterBear #방탄소년단뷔 #BTSV #Taehyung @BTS_twt</t>
+  </si>
+  <si>
+    <t>바쁜 일정중에도 자작곡 '풍경'을 발표해 감동을 준지 7개월만에 더 빡빡해진 스케줄 속에서도 아름다운 곡 'Winter Baer'를 싸운드클라우드 무료 음원 과 유튭 영상으로 팬들에게 깜짝 선물을 해준 #방탄소년단 뷔#의 재능과 감성을 보라합니다</t>
+  </si>
+  <si>
+    <t>바쁜 와중에 자작곡에 영상까지..정말 넘 대단한 방탄소년단뷔!!  재능이 너무 많은 뷔  수고했구 넘 고마워!!</t>
+  </si>
+  <si>
+    <t>태형이의 감성이 오롯이 담겨있는 winter bear넘 좋아요 ~태형아 고맙고 사랑한다 영원히 보라해방탄소년단뷔 김태형 최고</t>
+  </si>
+  <si>
+    <t>.호평대로 음률, 가사, 비주얼 모든 면에서 믿을 수 없을 만큼 아름다운 뮤직비디오!! 맞아요 이 모든게 완벽한 노래 특히 방탄소년단 뷔 특유의 감성까지 더해져 더 아름다운 노래 Winter Bear 노래 선물 고마워 진짜 보라해 1000일 기념곡으로 딱이야 보라해 방탄소년단 뷔♡ #WinterBear #방탄소년단뷔 #BTSV #Taehyung @BTS_twt</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔사랑해, 너랑 있음, 내맘이 넘넘, 포근해져.</t>
+  </si>
+  <si>
+    <t>눈물나게 아름다운 곡과 가슴벅차게 아름다운 목소리와 심장이 너무 뛰게 만드는 영상까지! 방탄소년단 뷔만의 매력이 듬뿍 담겨있는 자작곡에 감동하고 있어요!번역보기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 Winter Bear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 보라합니다 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔~예쁜 영상과 아름다운 노래 선물해줘서 너무 고마워요~ 보라한다</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 장악력이 대단해. 그는 그냥 스타로 태어났어.</t>
+  </si>
+  <si>
+    <t>Taehyung is a living breathing masterpiece!방탄소년단뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 보라해♡♡♡</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 올해 제가 가장 좋아하는 노래입니다.</t>
+  </si>
+  <si>
+    <t>태형아 보라해♡ 방탄소년단뷔는 천재 뮤지션</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BTSV #V #Taehyung #방탄소년단뷔 #방탄소년단 #뷔 #KimTaehyung #김태형  #태형 #purpleyou1000 #WinterBear </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 영화 찍었어요 ㅠㅠ 뮤비가 완전 아름다운 영화에요ㅠㅠ 뮤비에 세상에서 젤 잘생긴 남자가 분위기까지 대박이고 음악은 더 대박이고 ㅠㅠ 아름다운 장면들과 OST에 감동과 사랑에 내가 엉엉 울어요~~~ 뷔야~~~~</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 자작곡 노래는 항상 깊은 울림이 있어 좋다 풍경. 네시. 시티그마. 잡아줘 . WinerBear까지</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔에게 고마워♡ 따뜻하고 아름다운 노래</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔~ 너무나 아름다운곡 태형아 고맙고 보라해~ 윈터베어 너무 좋다</t>
+  </si>
+  <si>
+    <t>[방탄소년단 뷔]풍경도 작사 작곡 사진 잘찍고 재능과 매력이 넘치네</t>
+  </si>
+  <si>
+    <t>뭐하나빠짐없이충만하고아름다운음악이야~뷔는진짜신이내린선물같은아이~❤❤❤</t>
+  </si>
+  <si>
+    <t>Winter Bear!! 뮤직비디오가  한편의 영화네요 방탄소년단 뷔 주연! 뷔 감독! 뷔 노래! 뷔 작곡! 뷔 작사!!! 뭐 이런 어메이징한 존재가!!!! 정말 최고네요 ㅠㅠ 방탄소년단 뷔가 깜짝선물화 아름다운 이 영화와 OST 잘보고 잘들을께요~</t>
+  </si>
+  <si>
+    <t>멋지게 성장하고 있는 우리들의 아티스트 방탄소년단 뷔 항상 응원합니다</t>
+  </si>
+  <si>
+    <t>말이 필요없이 멋지고 이쁜 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 의 장악력이 대단해. 그는 그냥 스타로 태어났어.    #BTSV #V #Taehyung #방탄소년단뷔 #방탄소년단 #뷔 #KimTaehyung #김태형  #태형 #purpleyou1000 #WinterBear </t>
+  </si>
+  <si>
+    <t>정말 음악..운동..그림..사진..패션...모든 분야에서 최고다! 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔의 노래에는 가슴을 움직이는 무언가가 있어요.</t>
+  </si>
+  <si>
+    <t>보라해방탄소년단 뷔.너의 감수성을 고스란히 느껴서 행복하다</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 풍경이후로 너무 기다렸던 태형이의 자작곡 투어중에도 아미들에게 선물주려고 준비한거 생각하니 눈물나도록 고마워 태형아 윈터베어 너무 좋아 보라해 태형아</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔!!!! 김태형 보라해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔! 이 무슨 사기캐랍니까? 그 비주얼에 이같은 음악성이라니!! 천재! 만렙능력자네요 와우~~!!!!</t>
+  </si>
+  <si>
+    <t>어느때는 소년 어느때는 남성미가 푹푹넘치는 방탄소년단 뷔....</t>
+  </si>
+  <si>
+    <t>넘나 좋음 방탄소년단 뷔❤</t>
+  </si>
+  <si>
+    <t>영어가사로 써준거 글로벌 팬들에게 보내고 싶은 너의 마음이 너무 잘 전달돼！！</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 자작곡 선물 너무 고마와  해투 바쁜데 이런 자작곡 선물을 우리에게 줄 준비를 했었다니 감동적이야... 목소리도 노래도 사진도 영어 가사도 너무 아름답고 들을수록 더 빠져드는 힐링곡이야. 뷔의 아티스트로서 행보를 늘 응원해!</t>
+  </si>
+  <si>
+    <t>정말 어메이징 뷔메이징 방탄소년단 뷔! 겨울곰돌이 ㅠㅠ 자작곡 'Winter Bear' 진심 너무 좋다 ㅠㅠ 팬이라서 하는 말 아니고 정말 좋다 ㅠㅠ 천재감성싱어송라이터이자 비주얼폭발한 배우야  내 생애 이처럼 반짝이는 만렙장착한 슈퍼스타 처음본다 방탄소년단 뷔~~~</t>
+  </si>
+  <si>
+    <t>눈물나게 아름다운 곡과 가슴벅차게 아름다운 목소리와 심장이 너무 뛰게 만드는 영상까지! 방탄소년단 뷔만의 매력이 듬뿍 담겨있는 자작곡에 감동하고 있어요! 윈터베어 너무 고마워요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔만의 감성이 고스란히 담겨있네요 멋진 뷔의 모습이 담긴 영상도 너무 감각적이어서 좋아요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔아! 멋진 풍경이라는 자작곡을 선물해주고 음악도 연기도 그림도 사진도 못하는게 없는 멋진 아티스트! 응원할께</t>
+  </si>
+  <si>
+    <t>너무 좋아요~ 노래만 들어도 태형이가 만든 곡이구나~ 느껴지는 태형이만의 감성이 가득 담긴 명곡이예요~ 네시, 풍경, winter bear 까지... 태형이의 믹스테잎이 나올 날이 점점 가까워지는 느낌적인 느낌!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 너무 멋잇어!!! 방탄소년단 뷔만나보고 싶어 너무 멋잇어ㅜ ㅜ방탄소년단 뷔의 매력에 한번만 빠지면 나올수가없어 알면 알수록 매력이 넘쳐져있으니까 !!!</t>
+  </si>
+  <si>
+    <t>태형이 감수성을고스란히 느낄수 있는 노래입니다.보라해방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔방탄소년단 뷔의 매력에 한번만 빠지면 나올수가없어 알면 알수록 매력이 넘쳐져있으니까 !!!</t>
+  </si>
+  <si>
+    <t>8월에도 겨울이와~~봄날 가사 처럼 폭염에 선물처럼 와준 방탄소년단 뷔의 winter bear.진심 최고다.</t>
+  </si>
+  <si>
+    <t>방탄소년단  뷔의 아름다운 선물 고마워요~~^^</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 내 작은 곰이야</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 윈터베어 노래도 좋고 영상도 너무 아름답다 노래랑 딱 어울리는 영상</t>
+  </si>
+  <si>
+    <t>진심 방탄소년단 뷔는 천재 예술가 맞네 노래도 뮤비도 가사도 모든게 환상적 너무 아름다워 사람 울컥하ㅔ 만드는 재주 출중한 방탄소년단 뷔 당신은 진정 천재 예술가입니다</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 새로운 자작곡 윈터베어 정말 대박!!! 여기에 뮤비는 정말 영화네요 영화OST같아~ 뷔만의 이 따스한감성! 어쿠스틱한 멜로디! 시적인 가사! 독보적인 음색! 천상계 비주얼! 영화배우가 따로 없다 ㅠㅠ 방탄소년단 뷔 최고중에 최고다! 진짜 다이아몬드!!!!</t>
+  </si>
+  <si>
+    <t>뷔만의감성이너무좋다~들을수록따뜻함이넘쳐눈물이흐른다~마법같은곡이야~</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 태형아 너의 목소리를 처음부터 끝까지들을 수 있어서 너무 행복하다 오늘도 건강해새벽 내내 들으면서 막 울고 그랬어요 노래가 디게 서정적이고 아름다운데 막 가슴을 후비듯 파고드는 뭔가 깊고 깊은 여운이 너무 막 느껴져서ㅠㅠ 진짜 노래 왜 이렇게 아름다운거야 방탄소년단 뷔 정말 천재야 고마워 사랑해 보라해~♡#방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔특유한 목소리도 그렇고 그냥 타고난게 특이한 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>세상 다정 곰도리 울 태형이 너무 고마워 윈터 베어 너무 아뻐 사랑해 보라해 방탄소년단 뷔~♡ #WinterBear#BTSV #V #KimTaehyung #Taehyung#태형 #방탄소년단뷔 #뷔 #김태형</t>
+  </si>
+  <si>
+    <t>태형아♡아름다운 노래 감사해♡</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔~ 영상도 음악도 아름답고 울 태형이만의 감성 너무 좋아요 #방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>어느때는 귀엽고 어느때는 남성미가 폭팔하는 울 방틴소년단 뷔씨 울 김태형</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 너무 멋잇어!!!</t>
+  </si>
+  <si>
+    <t>새벽 내내 들으면서 막 울고 그랬어요 노래가 디게 서정적이고 아름다운데 막 가슴을 후비듯 파고드는 뭔가 깊고 깊은 여운이 너무 막 느껴져서ㅠㅠ 진짜 노래 왜 이렇게 아름다운거야 방탄소년단 뷔 정말 천재야 고마워 사랑해 보라해~♡ #WinterBear#BTSV #V #KimTaehyung #Taehyung#태형 #방탄소년단뷔 #뷔 #김태형</t>
+  </si>
+  <si>
+    <t>김태형♡넌 정말 선물같은 존재야~아름다운 노래 고마워!!!</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔 태형아 너의 목소리를 처음부터 끝까지들을 수 있어서 너무 행복하다 오늘도 건강해</t>
+  </si>
+  <si>
+    <t>love you soooooo much, Kim Taehyung V ♡♡♡</t>
+  </si>
+  <si>
+    <t>내가 편안하고 차분하고 싶을 때 방탄소년단 뷔의 목소리가 위로가 되고 있어</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔가 바로 인형의 대명사, 멋잇음의 대명사야#뷔 #방탄소년단뷔 #v #taehyung #김태형 #태형 #V #kimtaehyung #taetae #singularity #직캠     #뷔 #방탄소년단뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 한여름에 겨울을 선물해 줘서 고마워요 본인만큼이나 감성 충만하고 위로가 되는 노래#방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 윈터베어.. 생각치도 못한 깜짝 선물 고마워요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔는 이런미모로 산다는게 어떤기분일까??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔정말 아름다운 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔~ 영상도 음악도 아름답고 울 태형이만의 감성 너무 좋아요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 한여름에 겨울을 선물해 줘서 고마워요 본인만큼이나 감성 충만하고 위로가 되는 노래 #방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔.노래 넘 아름다워요. 평온해ㅣ네요</t>
+  </si>
+  <si>
+    <t>실력과 재능도 인성도 모두 다 최고인 방탄소년단 뷔는 진짜중의 진짜입니다!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 매력에 한번만 빠지면 나올수가없어 알면 알수록 매력이 넘쳐져있으니까 !!!</t>
+  </si>
+  <si>
+    <t>[방탄소년단 뷔]에 대한 관심과 인기가 실로 대단하네요~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한여름밤에 선물받은 winter bear. 방탄소년단 뷔의 자자곡. 듣고 있으면 어쩐지 눈물이 나는 느낌...슬픈게 아니라 그립고 행복해져 나는 눈물. 김태형씨 노래 고마위요 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 winter bear 아름답네요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔방탄소년단 뷔를 좋아해서 행복해!!!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 윈터베어 노래깜짝선물 정말 고마워 아직까지도 감동이 가시지않아#BTSV #V #KimTaehyung #Taehyung#태형 #방탄소년단뷔 #뷔 #김태형</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 팬에 대한 사랑과 아티스트로서의 감동은 사상최대인듯^_^！！</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 달달한 자장가느낌.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔만의 매력이 듬뿍 담겨있는 자작곡에 감동하고 있어요!! 너무 잘했어 태형아  #방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>천재싱어송라이터이자 영화배우 겨울곰돌군 방탄소년단 뷔! 윈터베어 최고다 이 감성 내 취향이다 딱!!!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 한여름에 겨울을 선물해 줘서 고마워요 본인만큼이나 감성 충만하고 위로가 되는 노래</t>
+  </si>
+  <si>
+    <t>Thank you for sharing this soulful and peaceful song.  We really appreciate. I love you so much baby .. I purple you 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>두고두고 듣게 될 명곡 방탄소년단 뷔의 한계는 없어요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 윈터베어 넘좋다</t>
+  </si>
+  <si>
+    <t>[방탄소년단 뷔]교과서에 단독으로 실릴만한 영향력을 가진 스타중에 스타!!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔!!!!  김태형 보라해!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔가 바로 인형의 대명사, 멋잇음의 대명사야</t>
+  </si>
+  <si>
+    <t>진짜 너무 고맙고 보라해 방탄소년단 뷔#방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>The why i love him...qhen you listen to his song and voice...it feels like home#WINTERBEARBYV #WinterBear #BTSV #V #Taehyung #방탄소년단뷔 #방탄소년단 #뷔 #KimTaehyung</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔만의 감성에 푹빠졌어요^_^！！</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔만의 매력이 듬뿍 담겨있는 자작곡에 감동하고 있어요!! 너무 잘했어 태형아</t>
+  </si>
+  <si>
+    <t>Beautiful song Winter Bear .. You make us shock.. We didn't expected this baby 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>아 진짜 노래 왜 이렇게 아름다운거야 방탄소년단 뷔 윈터 베어가 막 내 가슴속을 후비고 파고 들잖아 울컥하게 ㅠㅠ 뷔 진짜 천재야 아름다운 노래 선물 고마워 사랑해 보라해~♡ #WinterBea r#BTSV #Taehyung #방탄소년단뷔 @BTS_twt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔   감사합니다.우리는 항상 당신을 사랑할 것입니다. </t>
+  </si>
+  <si>
+    <t>V's voice seems to have the power to concentrate and to pull. 방탄소년단 뷔의 목소리는 사람을 집중시켜서 듣게 하고 끌어 당기는 힘이 있는 거 같아</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 김태형 보라해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔만나보고 싶어 너무 멋잇어ㅜ ㅜ</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔  winter bear 너무 아름다운 곡이에요 뮤비도 아름다워요!  보라해요</t>
+  </si>
+  <si>
+    <t>I'm proud of you bae 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>한여름의 윈터베어 방탄소년단 뷔 곰돌이가 주는 따듯한 선물#방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 자작곡 노래는 항상 깊은 울림이 있어 좋다 풍경^_^！！</t>
+  </si>
+  <si>
+    <t>세상 다정 곰도리 울 태형이 너무 고마워 윈터 베어 너무 아뻐 사랑해 보라해 방탄소년단 뷔~♡ #WinterBear #BTSV #Taehyung #방탄소년단뷔 @BTS_twt</t>
+  </si>
+  <si>
+    <t>넘 보기좋아 ㅜ ㅜ난 이런말밖에 안나와 방탄소년단 뷔가 멋잇는데 나보고 어떠카라고!!!!</t>
+  </si>
+  <si>
+    <t>감수성 폭팔이네요^^방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>고마워 곰돌씨♡노래 넘 좋더라</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 , his talent is undeniable</t>
+  </si>
+  <si>
+    <t>어젯밤 감동에서 아직 벗어나질 못하고 있어요 정말 사랑스럽고 멋진 아티스트 김뷔씨 보라해~</t>
+  </si>
+  <si>
+    <t>눈물나게 아름다운 곡과 가슴벅차게 아름다운 목소리와 심장이 너무 뛰게 만드는 영상까지! 방탄소년단 뷔만의 매력이 듬뿍 담겨있는 자작곡에 감동하고 있어요! 윈터베어 너무 고마워요 #방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>진짜 너무 고맙고 보라해 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 아름다운 노래 선물 고마워요~</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 감성이랑 목소리가 너무 잘 맞는 노래여서 너무 좋아</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 사랑하고 보라해요 김태형</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔는 아이돌이 아니였어도 대박날것 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>역시 최고다 음색킹!! 비주얼킹!! 방탄소년단 뷔! 와우!!! 생각지못한 깜짝선물에 완전 행복해졌어요~ 윈터베어 너무 좋아요 ^^ 아름답고 아름답습니다 세상에서 젤 쎄게 화려하게 생겨서는 이런 순수감성멜로디와 딥보이스라니 ㅠㅠ 가성부분에선 소름 쫙~~~ 최고에요 방탄소년단 뷔!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 winter bear 정말 감동입니다</t>
+  </si>
+  <si>
+    <t>진심 방탄소년단 뷔는 천재 예술가 맞네 노래도 뮤비도 가사도 모든게 환상적 너무 아름다워 사람 울컥하ㅔ 만드는 재주 출중한 방탄소년단 뷔 당신은 진정 천재 예술가입니다~ #WinterBear #BTSV #Taehyung #방탄소년단뷔 @BTS_twt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 </t>
+  </si>
+  <si>
+    <t>큰일이네요;;;아름다운 영상과 목소리에 갇혔어요계속되는 허밍과 winter bear.......</t>
+  </si>
+  <si>
+    <t>Kim Taehyung has just proved to the world once again how talented he is</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔 25세 아이돌이띾엔 믿기지않는 역량이네요 62개국트렌딩에 50개국이상 1위라니 유툽도 벌써 300만훌쩍넘었어오 와 대단</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 아름다운 곡 선물 고마워요...보라해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 proved his talent again</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔목소리 진짜 대박!!!! 넘 듣기좋아 여기서 뷔의 노래추천함 “네시””stigma””안아줘”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">투어다니는 틈틈히 이런곡에 대한 영감을 떠올릴수 있는 방탄소년단 뷔의 음악적 감각에 또 놀라네요멋있고 아름다운 곡으로 우리에게 멋진 선물을 준 뷔! </t>
+  </si>
+  <si>
+    <t>Thank you for #winterbear.  Can't stop listening this song. Sooooo beautiful song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔당신은 내가 좋아하는 것들을 열심히 할 수 있는 힘을 줍니다 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 너무나 감동적인 윈터베어 선물 너무 고마워 폭풍감동에 폭풍눈물 ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 winter bear</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔   노래 감사합니다.</t>
+  </si>
+  <si>
+    <t>아니 진짜 방탄소년단 뷔 왜저렇게 잘생겼지? 빨리 무대랑 방송에서 보고싶다.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 넘 귀여워!!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한여름의 윈터베어 방탄소년단 뷔 곰돌이가 주는 따듯한 선물   </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔어떤때는 소년으로 어떤때는 카리스마 넘치는 모습으로 변하는거 넘 신기하고 매력있어 탄의 너무 부럽다ㅋㅋㅋㅋ귀여웠어</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔진짜 잘생겼다~ㅠㅠㅠㅠ 잘생겼다 우리 묘인 최고야~~학생들이 엄청 좋아할듯~</t>
+  </si>
+  <si>
+    <t>풍경과 겨울 곰 다른 노래는 같은 편안한 분위기를 발산합니다. 자연의 소리, 그는 청중을위한 그림을 만듭니다, 그래서 조용하고 향수. 깊은 목소리로 자장가는 태형의 서명입니다.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔보고만 있어도 힐링이에요! 셀카부터 연탄까지 눈이 즐거워요! 방탄소년단 뷔 2019 활동 대박나길 응원합니다❤</t>
+  </si>
+  <si>
+    <t>항상 기대를 초과하는 방탄 소년단 뷔 ~~~ &lt;3 &lt;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어떤 영화를 보고 썼을까 클래식하고 여운 있는 아름다운 영화였을꺼야 분명 태형아 노래 너무 좋아 진짜 너란 아이 항상 상상을 뛰어넘는다 방탄소년단 뷔 음유시인 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 자작곡 선물 너무 고마와  해투 바쁜데 이런 자작곡 선물을 우리에게 줄 준비를 했었다니 감동적이야... 목소리도 노래도 사진도 영어 가사도 너무 아름답고 들을수록 더 빠져드는 힐링곡이야. 뷔의 아티스트로서 행보를 늘 응원해!항상 당신의 원조가 될 것입니다</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔얼굴형 피부 눈코입 진짜 다 예쁘다 사진보고 있는데 눈호강 쩔어요ㅠㅠ</t>
+  </si>
+  <si>
+    <t>아니 진짜  방탄소년단 뷔 왜저렇게 잘생겼지? 빨리 무대랑 방송에서 보고싶다.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔... 이번 winter bear 진짜 사랑해!</t>
+  </si>
+  <si>
+    <t>가사를 듣는 순간 감동이 배가되어 눈물이 줄줄ㅠ 방탄소년단 뷔 태형아 보라해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔,아름다운 선물 고마워요</t>
+  </si>
+  <si>
+    <t>사람이 우째 저리 귀여울수 있는지요ㅜㅜ방탄소년단 뷔ㅜㅜ너무 심장 아파 너무 이뻐ㅜㅜㅜㅜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 사진 진짜 귀여움 무대위랑 온도차이 넘 좋음방탄소년단 뷔 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔   너의 노래가 너무 좋아.     ☺☺☺☺☺</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔모든 일상이 화보같다~♡♡오늘도 너무너무 보고 싶다~ ♡♡</t>
+  </si>
+  <si>
+    <t>만반의준비갖추고 짠하고나타나 최고의무대 보여주길바~~~ 방탄소년단 뷔의 2019년을 응원합니다~~~</t>
+  </si>
+  <si>
+    <t>방탄 소년단 뷔 언제나 아름답게 말한다 당신이 밝게 빛나기를 ~ ~</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 곰돌이가 주는 따듯한 선물</t>
+  </si>
+  <si>
+    <t>영어가사로 써준거 글로벌 팬들에게 보내고 싶은 너의 마음이 너무 잘 전달돼방탄소년단 뷔 노래가 너무 좋아.</t>
+  </si>
+  <si>
+    <t>#winter bear is so amazing, so cool 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>한여름의 윈터베어 방탄소년단 뷔 곰돌이가 주는 따듯한 선물고마워</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 감사니다 </t>
+  </si>
+  <si>
+    <t>아미로서 행복해! 방탄소년단 뷔를 좋아해서 행복해!!!바쁜 투어중에도 멋진 흔적을 남겨준 방탄소년단 뷔~ 예쁜 영상과 노래를 선물해줘서 고마워요 보라해요#방탄소년단뷔 #방탄소년단 #뷔 #김태형 #태형 #V #taehyung #KimTaeHyung #BTS_V</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 얼굴도 보물이지만 목소리가 특히 보물과 같다고생각해  #방탄소년단뷔 #뷔 #태태 #태형 #방탄소년단 #김태형 #CGV #BTSV #V #KimTaehyung #Taehyung</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 곰돌이가 주는 따듯한 선물너를 영원히 사랑해.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔,아름다운 선물 고마워요 </t>
+  </si>
+  <si>
+    <t>방탄소년단뷔 25세 아이돌이띾엔 믿기지않는 역량이네요 62개국트렌딩에 50개국이상 1위라니 유툽도 벌써 300만훌쩍넘었어오 와 대단아미로서 행복해! 방탄소년단 뷔를 좋아해서 행복해!!!#방탄소년단뷔 #방탄소년단 #뷔 #김태형 #태형 #V #taehyung #KimTaeHyung #BTS_V</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 목소리는 자장가 같다.</t>
+  </si>
+  <si>
+    <t>건강하고 행복한 모습 보여주는 것만으로도 큰 선물인데 바쁜와중에도 이런 멋진 선물을 준비했다니 너무 고마워 방탄소년단 뷔 보라해</t>
+  </si>
+  <si>
+    <t>목소리도 노래도 사진도 영어 가사도 너무 아름답고 들을수록 더 빠져드는 힐링곡이야. 뷔의 아티스트로서 행보를 늘 응원해!방탄소년단 뷔 나는 너를 사랑해.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 노래 듣고있으면 내감성도 덩달아 차오른다. 보석같은 뷔 목소리❄️</t>
+  </si>
+  <si>
+    <t>보석은 어디에서나 빛나는 법이죠!^^보라해요 방탄소년단 뷔✨✨✨</t>
+  </si>
+  <si>
+    <t>어떤 영화를 보고 썼을까 클래식하고 여운 있는 아름다운 영화였을꺼야 분명 태형아 노래 너무 좋아 진짜 너란 아이 항상 상상을 뛰어넘는다 방탄소년단 뷔 음유시인방탄소년단뷔!!!!  김태형 보라해!#방탄소년단뷔 #방탄소년단 #뷔 #김태형 #태형 #V #taehyung #KimTaeHyung #BTS_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 자작곡 선물 너무 고마와  해투 바쁜데 이런 자작곡 선물을 우리에게 줄 준비를 했었다니 감동적이야... </t>
+  </si>
+  <si>
+    <t>고마워 보라해 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>한여름의 윈터베어 방탄소년단 뷔 곰돌이가 주는 따듯한 선물너를 영원히 사랑해.</t>
+  </si>
+  <si>
+    <t>뷔의 목소리가 오롯이 담긴 곡은 그야말로 힐링 그자체죠..방탄소년단 뷔의 목소리가 가진 힘에 많은 사람들이 힐링되길 바랍니다</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 당신은 너무 재능이 있습니다.</t>
+  </si>
+  <si>
+    <t>난 방탄소년단 뷔 항상 응원 할게요</t>
+  </si>
+  <si>
+    <t>아미 사랑둥이 김태형. 방탄소년단 뷔는 아미들의 상징어 ‘아이퍼플유’ 발언 공개 1,000일을 맞아 ‘WinterBear’를 공개헌 것 같습니다. 이곡이 공개되기 직전까지 전세계 아미들은 #IPurpleYou1000 트윗으로 전세계 실시간 트랜드 1위를 만들었는데 그 시점에 ‘윈터베어’를 공개한거죠. 꿈같은 음악선물. 고맙고 응원하고 지지합니다. ‘아이퍼플유1000’</t>
+  </si>
+  <si>
+    <t>어떤 영화를 보고 썼을까 클래식하고 여운 있는 아름다운 영화였을꺼야 분명 태형아 노래 너무 좋아 진짜 너란 아이 항상 상상을 뛰어넘는다 방탄소년단 뷔 음유시인나는 너를 사랑해.</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔만의 감성이 잘 녹아난 또 하나의 명곡이 탄생했네요</t>
+  </si>
+  <si>
+    <t>Your voice is amazing, i love it so much#방탄소년단뷔 #뷔 #김태형 #V #BTSV #Taehyung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어젯밤 감동에서 아직도 못벗어나고 있다 태형아 고마워 사랑해 방탄소년단 뷔의 감성이 그대로 느껴지는 뮤비까지 고마워 </t>
+  </si>
+  <si>
+    <t>가슴 벅찬 태형이의 소중한 감성 가득한 윈터 베어 너무 좋아요 고마워요 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>윈터베어 방탄소년단  뷔 ♡♡♡♡♡</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 사진과 목소리를 사랑합니다</t>
+  </si>
+  <si>
+    <t>우리 태형이 #Winerbear 노래 넘 좋다 바쁜 해투일정에 아름다운 뮤비까지 고마워 보라해 방탄소년단 뷔 노래가 너무 좋아.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔만의 감성에 푹빠졌어요. 노래가 너무 좋아.나는 너를 사랑해.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 목소리 너무 좋아</t>
+  </si>
+  <si>
+    <t>봐도봐도 심장이 적응못하는 방탄소년단 뷔의 비주얼</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 윈터베어 한여름에 듣는 겨울감성 마음을 다독여주는 힐링곡</t>
+  </si>
+  <si>
+    <t>영상도 노래도 너무 좋아요 고마워요 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 의 목소리는 내가 들어본 것 중에서 최고였고 독특하다.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔만의 감성 목소리에 치이고 영상에 잠못든 밤이였다</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 노래는 어쩜 이렇게 다 아름다울수 있을까 싶어 노래들 하나 같이 명곡에 힐링곡! 더더 발전하는 천재 아티스트 방탄소년단 뷔 깜짝 노래 선물 고마워 진심으로 보라해♡ #WinterBear #BTSV #Taehyung #방탄소년단뷔</t>
+  </si>
+  <si>
+    <t>어젯밤 감동에서 아직도 못벗어나고 있다 태형아 고마워 사랑해 방탄소년단 뷔의 감성이 그대로 느껴지는 뮤비까지 고마워번역보기</t>
+  </si>
+  <si>
+    <t>이번 뮤비에서 방탄소년단 뷔 에게 제일 눈이 가더라. 외모나 끼가 엄청나</t>
+  </si>
+  <si>
+    <t>아름다운 음색 아름다운 가사 방탄소년단뷔가 또 해냈네요 뷔야 보라해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 노래는 어쩜 이렇게 다 아름다울수 있을까 싶어 노래들 하나 같이 명곡에 힐링곡! 더더 발전하는 천재 아티스트 방탄소년단 뷔 깜짝 노래 선물 고마워 진심으로 보라해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 윈터베어 완벽하네요</t>
+  </si>
+  <si>
+    <t>아, 방탄소년단 뷔는 진심 인형같다.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 노래는 어쩜 이렇게 다 아름다울수 있을까 싶어 노래들 하나 같이 명곡에 힐링곡! 더더 발전하는 천재 아티스트 방탄소년단 뷔 깜짝 노래 선물 고마워 진심으로 보라해♡ #WinterBear #BTSV #Taehyung #방탄소년단뷔~</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔만의 감성에 푹빠졌어요. 많은 분들이 이 느낌을 공유하길</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 너무 멋잇어!!! </t>
+  </si>
+  <si>
+    <t>ㅠㅠㅠ방탄소년단 뷔, 넌 천재야 ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔는 진짜 다재다능한것 같아요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 윈터베어 한여름에 듣는 겨울감성 마음을 다독여주는 힐링곡.</t>
+  </si>
+  <si>
+    <t>방탄소년.단 뷔는 완벽해. 나는 그를 너무 사랑해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 목소리는 감정으로 가득차 있고 노래를 들을대 무언가를 느낄 수 있다.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 winter bear 뮤직비디오 너무 좋아요.</t>
+  </si>
+  <si>
+    <t>we Arabs are stuck in his magic  #BTSV 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>thank you Taehyung, such a beautiful song BTS V</t>
+  </si>
+  <si>
+    <t>고마워~ 보라해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 자작곡 노래는 항상 깊은 울림이 있어 좋다 풍경. 네시. 시티그마. 잡아줘 .✨</t>
+  </si>
+  <si>
+    <t>세상에 진짜 이런미모가 있을가? 방탄소년단 뷔는 매일마다 자신의 미모를 보면 어떤기분일까???</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 소중한 감성 너무 좋아요~ 윈처 베어 너무 고마워요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔는 천상 아이돌이야.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 목소리는 자장가 같다. 방탄소년단 뷔  방탄소년단 뷔 그는 배우가되기 위해 태어났다. 방탄소년단 뷔 ♡♡♡</t>
+  </si>
+  <si>
+    <t>한여름의 윈터베어 방탄소년단 뷔 곰돌이가 주는 따듯한 선물 #WinterBear</t>
+  </si>
+  <si>
+    <t>네 맞습니다 최고의 선물 윈터 베어#BTSV #V #KimTaehyung #Taehyung#태형 #방탄소년단뷔 #뷔 #김태형</t>
+  </si>
+  <si>
+    <t>Love this song so much BTS V</t>
+  </si>
+  <si>
+    <t>태형아 노래선물 고마워♡ 8월에도 겨울이 와 ㅜㅜㅜ</t>
+  </si>
+  <si>
+    <t>I love this 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 정말 아름다운 곡이에요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">태형의 생각이 너의 말이 되고 노래가 되고 우리의 음악으로 맞닿는 곳, 태형의 세계를 사랑해. 넌 봄날을 사랑한 겨울의 아이, 어스름한 가을의 저녁놀처럼 여름밤을 물들이는 꿈이야. 제 겨울에도 사랑을 돌려준 어느 겨울날의 갈색 곰돌이를 잊지 않을게. 너의 포근한 여름잠을 그리며방탄소년단 뷔 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 목소리는 자장가 같다. 방탄소년단 뷔 ♡♡♡</t>
+  </si>
+  <si>
+    <t>중저음으로 완벽해 태형이 노래 너무좋다</t>
+  </si>
+  <si>
+    <t>ㅠㅠㅠ방탄소년단 뷔 , 너는 내게 최고의 아이돌!!! 딱 네 노래야 ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>뮤비 속 방탄소년단 뷔   너무도 아름답다..외면도 내면도 노래도</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔!!!!  김태형 보라해! #WinterBear</t>
+  </si>
+  <si>
+    <t>Kim Taehyung is so precious. Our treasure. Army will be with you always , remember.   ARMY LOVES YOU WIND´S PRINCE</t>
+  </si>
+  <si>
+    <t>Taehyung is a great songwriter, photographer and now director. V is a true artist. #방탄소년단뷔 #방탄소년단 #뷔 #BTSV #V</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔는 완벽해. 나는 그를 너무 사랑해. 방탄소년단 뷔 ❄ 방탄소년단 뷔  ❄</t>
+  </si>
+  <si>
+    <t>힐링 보이스와 함께 음악적 재능과 예술적 감성으로 자작곡 풍경에 이어 Winter Bear를 선물해준 방탄소년단 뷔 진짜 고마워 늘 보라해^_^_^</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔는 정말 사랑하지안을수가없네요#BTSV #V #KimTaehyung #Taehyung#태형 #방탄소년단뷔 #뷔 #김태형</t>
+  </si>
+  <si>
+    <t>사실 나는 뷔때문에 방탄을좋아하게됬어 그 사차원매력에</t>
+  </si>
+  <si>
+    <t>겨울곰돌이 방탄소년단 뷔의 아름다운 비행은 이제 시작~~</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 winter bear 뮤직비디오 너무 좋아요</t>
+  </si>
+  <si>
+    <t>뷔는 따뜻한 마음과 사랑으로 늘 팬들에게 눈높이가 되고 있습니다 뷔는 항상 팬들에게 고맙고 감사 하다고 심장을 가르키며 인사를 합니다 언제나 방탄소년단 뷔 는 참 착한사람 이에요 앞으로 이착한 방탄소년단 뷔 는 모든 사람들에게 사랑을 많이 듬뿍 받았으면 좋겠습니다 ~ 태형이 보라해 ~~</t>
+  </si>
+  <si>
+    <t>태형이는 봄의 꽃잎 사이로 스치는 가을의 바람. 여름의 신록으로 내려앉는 겨울의 눈꽃. 네가 머물던 풍경으로 마법처럼 나의 사계를 데려가, 무방비한 일상을 꿈의 숲으로 피어나게 하는 노래. 태형의 그림자를 따라 걸으면 아득히 먼 길의 끝에 빛으로 선 네가 보여. 널 기다리던 좋은 밤, 좋은 날. 행복. 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔's voice, the vocal that evoke envy #방탄소년단 #뷔 #방탄소년단뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 I simply love it. Taehyung's music is so heart warming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 winter bear </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 곰돌이가 주는 따듯한 선물^_^_^</t>
+  </si>
+  <si>
+    <t>윈터베어 한여름에 듣고 눈물한바가지 쏟았네 방탄소년단 뷔 천재야 고마웡#BTSV #V #KimTaehyung #Taehyung#태형 #방탄소년단뷔 #뷔 #김태형</t>
+  </si>
+  <si>
+    <t>Good boy with a good song BTS V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔의 팬사랑은 유명하죠 참건실하고 사랑이 많은 사람입니다 가식없이 대하는 순수한 방탄소년단 뷔 </t>
+  </si>
+  <si>
+    <t>방탄소년당 뷔 윈터베어 계속 듣는데 너무 좋아요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔나는이 노래를 듣고 울음을 들었다.움직이는 목소리입니다.</t>
+  </si>
+  <si>
+    <t>어쩜어쩜 가사가 이렇게 가슴을 치는거죠?!!! 너무 아름다운 시입니다 우리 방탄소년단 뷔 시인 맞는거죵~</t>
+  </si>
+  <si>
+    <t>영어가사로 써준거 글로벌 팬들에게 보내고 싶은 너의 마음이 너무 잘 전달돼방탄소년단뷔!!!!  김태형 보라해!아미로서 행복해! 방탄소년단 뷔를 좋아해서 행복해!!!#방탄소년단뷔 #방탄소년단 #뷔 #김태형 #태형 #V #taehyung #KimTaeHyung #BTS_V</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔^_^팬들과 소통도 하고 너무기특하고 고마움^_^_^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단 뷔 따듯하고 예쁘고 아름답고 너의 선한 영향력이 전세계 에 퍼지길 바래봅니다 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 는 늘 사랑이 넘치는 따뜻한 마음을 보여주고 있다. 방탄소년단 뷔 는 항상 좋은 사람이다. Winter Bear is a very beautiful song</t>
+  </si>
+  <si>
+    <t>#WinerBear 태령이의 감성과 유니크한 목소리까지 더해진데다 뮤비까지 ㅜ.ㅠ 고마워 사랑해 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>우리 곰돌이 윈터베어 선물 너무 고마워</t>
+  </si>
+  <si>
+    <t>그래봤자 팀빨아님? ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 천재 맞네요</t>
+  </si>
+  <si>
+    <t>아미로서 행복해! 방탄소년단 뷔를 좋아해서 행복해!!!방탄소년단 뷔 자작곡 선물 너무 고마와  해투 바쁜데 이런 자작곡 선물을 우리에게 줄 준비를 했었다니 감동적이야... 목소리도 노래도 사진도 영어 가사도 너무 아름답고 들을수록 더 빠져드는 힐링곡이야. 뷔의 아티스트로서 행보를 늘 응원해!!중국어(간체)로 번역됨❄️#방탄소년단뷔 #방탄소년단 #뷔 #김태형 #태형 #V #taehyung #KimTaeHyung #BTS_V</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 목소리는 내가 들어본 것 중에서 최고였고 독특하다</t>
+  </si>
+  <si>
+    <t>태형이 진짜 너무 잘했어요! 태형이 영어 발음 진짜 곳! 완벽해요. 노래 내 마음이 따뜻하게 만들어줬어요~ 영상도 너무 이뻐요 겨울이 빨리 왔으면 좋겠다! 이 노래를 들으면서 더 많은 감정을 느끼기 위해...아름다운 선물 진심으로 고마워여! 항상 행복하세요 보라해요! 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>아름다운 아티스트 방탄소년단 뷔의 자작곡 윈터베어는 뷔의 감성이 가득담긴 힐링곡임</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔는 어덯게 사람의 심금을 울리는 노래들을 만들수가 있는걸까요? 참으로 신기하고 놀라울따럼 이네요❄️방탄소년단뷔!!!!  김태형 보라해!#방탄소년단뷔 #방탄소년단 #뷔 #김태형 #태형 #V #taehyung #KimTaeHyung #BTS_V</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔!!!!  김태형 보라해!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 너무너무 고마워요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔은 나에게 너무 많은 행복을 가져 왔으며, 앞으로 방탄소년단 뷔을 사랑할 것입니다♡방탄소년단 뷔 사랑해</t>
+  </si>
+  <si>
+    <t>이런 미모가 존제한다는게 ...ㄹㅇ못믿겨</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 감성이 가득담긴 아름다운 자작곡임</t>
+  </si>
+  <si>
+    <t>타고난 천재 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 자작곡 노래는 항상 깊은 울림이 있어 좋다 풍경. 네시. 시티그마. 잡아줘 .✨✨</t>
+  </si>
+  <si>
+    <t>아미라서 행복햐...ㅎㅎ태형아 선물 고마워 노래 진짜 너무 좋자나ㅠ</t>
+  </si>
+  <si>
+    <t>King 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔  태형이는 언제나 감동이다  winter bear 도 정말 좋다</t>
+  </si>
+  <si>
+    <t>아름다운 아티스트 방탄소년단 뷔의 감성이 고스란히 담긴 자작곡 윈터 베어</t>
+  </si>
+  <si>
+    <t>진심이 담은 아름다운 가사와 멜로디 ㅠㅠ 언제나 예측을 깨고 언제나 상상이상의 행복을 주는 방탄소년단 뷔~♡ 너무 예쁘고 아름답고 소중한 추억과 선물을 선사받았어요 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>비와 달, 하늘, 바다, 강, 들판, 도시, 꽃, 새 등 아름다운 풍경을 카메라에 담는 방탄소년단 뷔의 모습과 서정적인 음악이 너무 아름다워요 ㅠㅠ 방탄소년단 뷔 정말 천재아티스트 맞네요!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 자작곡은 정말 힐링되고 부드럽습니다!당신의 삶을 우리와 함께 나누어줘서 고마워요!</t>
+  </si>
+  <si>
+    <t>너무좋다 너의 감성이 느껴지는것같네</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 노래, 영상 진심 좋아요. Winter Bear</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔는 완벽해. 나는 그를 너무 사랑해. 방탄소년단 뷔, 넌 천재야 ㅠㅠㅠ ❄</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔☂️☂️☂️☂️☂️</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 나에게 너무 많은 행복을 가져 왔으며, 앞으로 방탄소년단 뷔을 사랑할 것입니다♡방탄소년단 뷔 사랑해</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 노래 너~~~~~~~~~~무 좋아용 노래를 듣고 있으니 너무 행복해요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 새 앨범 준비하느나 바쁠텐데 팬 챙기는 착한 마음 이쁘다 이뼈</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 자작곡 하나하나가 너무 좋아요!</t>
+  </si>
+  <si>
+    <t>그는 정말 부드럽고 아름답구나방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔는 정말 끼가 많아. 정말 놀라워. 방탄소년단 뷔는 천상 아이돌이야.</t>
+  </si>
+  <si>
+    <t>진짜 감동이야 눈물이 줄줄   방탄소년단 뷔의 신곡 윈터베어 너무 좋아</t>
+  </si>
+  <si>
+    <t>많은 후배 아이돌이 롤모델로 꼽은 뷔는 겉도 속도 예쁜 너라서 더 좋아</t>
+  </si>
+  <si>
+    <t>겨울에 태어난 우리의 봄 김뷔 Baby Bear 김곰돌군이 팔월의 크리스마스처럼 우리에게 전해준 한여름에 느끼는 아름다운 겨울 감성 Winter Bear! 진작에 알고 있었지만 total artist로 멋지게 성장하고 있는 방탄소년단 뷔 김태형군의 미래를 응원합니다.</t>
+  </si>
+  <si>
+    <t>한여름에 방탄소년단 뷔 덕에 귀가 호강했는데 받은 사랑 다시 나누는 아미들 따스하다</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 자랑스러운 내가수 멋지다</t>
+  </si>
+  <si>
+    <t>언제나 방탄소년단 뷔의 노래를 들으면 힐링되는 느낌이다 목소리 자체가 너무 편하고 가슴을 울려</t>
+  </si>
+  <si>
+    <t>바쁜 일정 속에서 어떻게 이런 보물을 만들었어 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>영어로 이렇게 아름다운 가사를 쓰다니 태형아 정말 대단하다! 방탄소년단 뷔 노래선물 고마워</t>
+  </si>
+  <si>
+    <t>Your most talented man in the world 방탄소년단뷔 i purple you Taehyung.</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 실력만큼이나 비주얼 인성까지 매력이 차고 넘친다 보라고 또 보라해 .</t>
+  </si>
+  <si>
+    <t>사랑해요 방탄소년단 뷔 최고의 싱어송라이터 영원히 응원할께요!!</t>
+  </si>
+  <si>
+    <t>내가 이 노래를 들었을 때 나는 울었다. 너무 좋다.방탄소년단 뷔 를 축하한다.</t>
+  </si>
+  <si>
+    <t>정말 아름다운 곡에 감성적인 영상입니다~모두 방탄소년단 뷔의 윈터베어 들어보세요~ 꼭!!! #WinterBear</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 Legend</t>
+  </si>
+  <si>
+    <t>Cute 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>영상도 너무 예뻐 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔 he is so artistic and talented Taehyung i purple you !!!!!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 자작곡 ‘winter bear’ 영상과 노래로 인해 내 마음이 행복감으로 가득 채워지네요.고마워요.보라해요!!!</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 편안한 목소리에 늦은 잠을 청해 봅니다...그 목소리에 새벽엔 잠을 설쳤지만요^^ #WinterBear</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔  너무나 아름다운 노래 감성적인 면을 자극하는  태형님 보라해요.</t>
+  </si>
+  <si>
+    <t>다재다능한 멀티엔터테이너 방탄소년단 뷔!</t>
+  </si>
+  <si>
+    <t>노래 정말 정말  좋아요 .  보라해</t>
+  </si>
+  <si>
+    <t>영상 속의 방탄소년단 뷔 미소가 너무 아름답고 노래 속의 목소리는 잔잔한 감동</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 낭만곰돌이가 쓴 윈터베어 너무 좋다</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 8월의 크리스마스선물</t>
+  </si>
+  <si>
+    <t>#WinerBear 태령이의 감성과 유니크한 목소리까지 더해진데다 뮤비까지 ㅜ.ㅠ 고마워 사랑해 방탄소년단 뷔✨✨</t>
+  </si>
+  <si>
+    <t>I love him 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>울 곰도리의 감성의 끝은 어디일까요...이런게 진짜 방탄소년단 뷔의 반전 매력이죠^^ #WinterBear</t>
+  </si>
+  <si>
+    <t>그는 정말 부드럽고 아름답구나 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 태형아 선물 정말고마워~</t>
+  </si>
+  <si>
+    <t>영어가사로 써준거 글로벌 팬들에게 보내고 싶은 너의 마음이 너무 잘 전달돼고마워</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 winterbear  눈과 귀가 호강하네요 넘좋아요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔  선물</t>
+  </si>
+  <si>
+    <t>뷔의 감성이 오롯이 느껴지는 영상과 목소리 너무 좋네요 #방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>너무 아름다워 #WinterBear #IPurpleYou1000 #Taehyung</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 풍경이후로 너무 기다렸던 태형이의 자작곡 투어중에도 아미들에게 선물주려고 준비한거 생각하니 눈물나도록 고마워 태형아 윈터베어 너무 좋아 보라해 태형아✨</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 역시 천재입니다#방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 태형이만의 독보적이고 독특한 감성에 마음까지 위로받고 너무나 행복해요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔만의 감성이 고스란히 담겨있네요</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔 자작곡 윈터베어 넘 좋아요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">태형아 노래 너무 좋아 진짜♡ 항상 상상을 뛰어넘는다 음유시인 방탄소년단 뷔 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔의 감성 너무 멋져요</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 태형아!! 너의 감성 정말 애낀다...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방탄소년단뷔 최고의 감성 슈스 보라해 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">따뜻한 음악 선물 고마워요 방탄소년단 뷔 </t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 8월의 아름답고 감성적인 윈터베어 선물 넘 감댜합니당✨✨</t>
+  </si>
+  <si>
+    <t>태형아 노래 너무 좋아 진짜♡ 항상 상상을 뛰어넘는다 음유시인 방탄소년단 뷔</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 선물 고마워요 #방탄소년단뷔 #뷔 #김태형 #BTSV #V #Taehyung</t>
+  </si>
+  <si>
+    <t>방탄소년단뷔 직접만든 영상과 곡 따뜻하고 포근함이 느껴져 태형만의 감성 너무 사랑해♡♡고마워 너무좋아！</t>
+  </si>
+  <si>
+    <t>방탄소년단 뷔 달콤하고 감미로운 자작곡 윈터베어 선물 고마워요 격하게 응원합니다</t>
+  </si>
+  <si>
+    <t>847</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1179,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1193,10 +1622,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>384</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1207,10 +1636,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1221,10 +1650,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1235,10 +1664,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1249,10 +1678,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1263,10 +1692,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1277,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1291,10 +1720,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1305,10 +1734,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1319,10 +1748,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1333,10 +1762,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1347,10 +1776,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1361,10 +1790,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>394</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1375,10 +1804,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>395</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1389,10 +1818,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1403,10 +1832,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>396</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1414,13 +1843,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>397</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1428,27 +1857,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>397</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1456,13 +1882,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1470,13 +1896,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="D23" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1484,13 +1910,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>399</v>
       </c>
       <c r="D24" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1498,13 +1924,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>399</v>
       </c>
       <c r="D25" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1512,13 +1938,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1526,13 +1952,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1540,13 +1966,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1554,13 +1980,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1568,13 +1994,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1582,13 +2008,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>245</v>
+        <v>400</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1596,13 +2022,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1610,13 +2036,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>400</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1624,13 +2050,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1638,13 +2064,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1652,13 +2078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1666,13 +2092,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1680,27 +2106,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
       <c r="C39" t="s">
-        <v>248</v>
+        <v>400</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1708,13 +2131,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>400</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1722,13 +2145,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1736,13 +2159,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1750,13 +2173,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1764,13 +2187,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1778,13 +2201,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1792,13 +2215,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>248</v>
+        <v>400</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1806,13 +2229,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="D47" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1820,13 +2243,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1834,13 +2257,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1848,13 +2271,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1862,13 +2285,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1876,13 +2299,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1890,13 +2313,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1904,13 +2327,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D54" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1918,13 +2341,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1932,13 +2355,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1946,13 +2369,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1960,13 +2383,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1974,13 +2397,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1988,13 +2411,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2002,13 +2425,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="D61" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2016,13 +2439,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2030,13 +2453,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="D63" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2044,13 +2467,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2058,27 +2481,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
       <c r="C66" t="s">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2086,13 +2506,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>401</v>
       </c>
       <c r="D67" t="s">
-        <v>232</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2100,13 +2520,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2114,13 +2534,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>401</v>
       </c>
       <c r="D69" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2128,13 +2548,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2142,13 +2562,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
       <c r="D71" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2156,13 +2576,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2170,13 +2590,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="D73" t="s">
-        <v>248</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2184,13 +2604,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
       <c r="D74" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2198,13 +2618,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
       <c r="D75" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2212,13 +2632,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2226,13 +2646,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2240,13 +2660,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="D78" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2254,13 +2674,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2268,13 +2688,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2282,13 +2702,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2296,13 +2716,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2310,13 +2730,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2324,13 +2744,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2338,13 +2758,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2352,13 +2772,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D86" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2366,13 +2786,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D87" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2380,13 +2800,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C88" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2394,13 +2814,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2408,13 +2828,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D90" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2422,13 +2842,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2436,13 +2856,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2450,13 +2870,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2464,13 +2884,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2478,13 +2898,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2492,13 +2912,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2506,13 +2926,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2520,13 +2940,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2534,13 +2954,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C99" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2548,13 +2968,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C100" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2562,13 +2982,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C101" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D101" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2576,13 +2996,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C102" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2590,13 +3010,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D103" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2604,13 +3024,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D104" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2618,13 +3038,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2632,13 +3052,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C106" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D106" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2646,13 +3066,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>401</v>
       </c>
       <c r="D107" t="s">
-        <v>253</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2660,13 +3080,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="D108" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2674,13 +3094,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>401</v>
       </c>
       <c r="D109" t="s">
-        <v>242</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2688,13 +3108,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>255</v>
+        <v>401</v>
       </c>
       <c r="D110" t="s">
-        <v>255</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2702,13 +3122,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
       <c r="D111" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2716,13 +3136,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C112" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
       <c r="D112" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2730,13 +3150,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2744,13 +3164,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C114" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="D114" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2758,13 +3178,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="D115" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2772,13 +3192,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="D116" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2786,13 +3206,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D117" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2800,13 +3220,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C118" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2814,13 +3234,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D119" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2828,13 +3248,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C120" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D120" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2842,13 +3262,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D121" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2856,13 +3276,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D122" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2870,13 +3290,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D123" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2884,13 +3304,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C124" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D124" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2898,13 +3318,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D125" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2912,13 +3332,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C126" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D126" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2926,13 +3346,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C127" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D127" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2940,13 +3360,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C128" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D128" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2954,13 +3374,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C129" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D129" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2968,13 +3388,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C130" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2982,13 +3402,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C131" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D131" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2996,13 +3416,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C132" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D132" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3010,13 +3430,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C133" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D133" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3024,13 +3444,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C134" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D134" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3038,13 +3458,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C135" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D135" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3052,13 +3472,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C136" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D136" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3066,24 +3486,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C137" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D137" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
+      <c r="B138" t="s">
+        <v>122</v>
+      </c>
       <c r="C138" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D138" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3091,13 +3514,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C139" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D139" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3105,13 +3528,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C140" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D140" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3119,13 +3542,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C141" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D141" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3133,13 +3556,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C142" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D142" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3147,13 +3570,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C143" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D143" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3161,13 +3584,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C144" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D144" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3175,13 +3598,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C145" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D145" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3189,13 +3612,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C146" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D146" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3203,13 +3626,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C147" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D147" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3217,13 +3640,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C148" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D148" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3231,13 +3654,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C149" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D149" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3245,13 +3668,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C150" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D150" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3259,13 +3682,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C151" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D151" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3273,13 +3696,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C152" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D152" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3287,13 +3710,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C153" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D153" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3301,13 +3724,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C154" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D154" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3315,13 +3738,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C155" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D155" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3329,13 +3752,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C156" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D156" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3343,13 +3766,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C157" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D157" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3357,13 +3780,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C158" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D158" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3371,13 +3794,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C159" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D159" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3385,13 +3808,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C160" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D160" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3399,13 +3822,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C161" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D161" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3413,13 +3836,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C162" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3427,13 +3850,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C163" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D163" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3441,13 +3864,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C164" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D164" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3455,13 +3878,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C165" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D165" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3469,13 +3892,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C166" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D166" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3483,13 +3906,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C167" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D167" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3497,13 +3920,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C168" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D168" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3511,13 +3934,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C169" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D169" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3525,13 +3948,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C170" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D170" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3539,13 +3962,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C171" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D171" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3553,13 +3976,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C172" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D172" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3567,13 +3990,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C173" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D173" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3581,13 +4004,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C174" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D174" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3595,13 +4018,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C175" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D175" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3609,13 +4032,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C176" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D176" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3623,13 +4046,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C177" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D177" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3637,13 +4060,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C178" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D178" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3651,13 +4074,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C179" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D179" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3665,13 +4088,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C180" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D180" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3679,13 +4102,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C181" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D181" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3693,13 +4116,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C182" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D182" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3707,13 +4130,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C183" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D183" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3721,13 +4144,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C184" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D184" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3735,13 +4158,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C185" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D185" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3749,13 +4172,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C186" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D186" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3763,13 +4186,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C187" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D187" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3777,13 +4200,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C188" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D188" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3791,13 +4214,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C189" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D189" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3805,13 +4228,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C190" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D190" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3819,13 +4242,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C191" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D191" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3833,13 +4256,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C192" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D192" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3847,13 +4270,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C193" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D193" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3861,13 +4284,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C194" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D194" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3875,13 +4298,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C195" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D195" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3889,13 +4312,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C196" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D196" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3903,13 +4326,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C197" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D197" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3917,13 +4340,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C198" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D198" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3931,13 +4354,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C199" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D199" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3945,13 +4368,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C200" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D200" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3959,13 +4382,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C201" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D201" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3973,13 +4396,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C202" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D202" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3987,13 +4410,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C203" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D203" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4001,13 +4424,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C204" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D204" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4015,13 +4438,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C205" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D205" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4029,13 +4452,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C206" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D206" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4043,13 +4466,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C207" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D207" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4057,13 +4480,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C208" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D208" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4071,13 +4494,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C209" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D209" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4085,13 +4508,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C210" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D210" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4099,13 +4522,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C211" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D211" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4113,13 +4536,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C212" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D212" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4127,13 +4550,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C213" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D213" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4141,13 +4564,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C214" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D214" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4155,13 +4578,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D215" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4169,13 +4592,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C216" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D216" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4183,13 +4606,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C217" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D217" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4197,13 +4620,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C218" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D218" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4211,13 +4634,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C219" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D219" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4225,13 +4648,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C220" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="D220" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4239,13 +4662,2547 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
+        <v>205</v>
+      </c>
+      <c r="C221" t="s">
+        <v>401</v>
+      </c>
+      <c r="D221" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>206</v>
+      </c>
+      <c r="C222" t="s">
+        <v>401</v>
+      </c>
+      <c r="D222" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="C221" t="s">
+      <c r="B223" t="s">
+        <v>207</v>
+      </c>
+      <c r="C223" t="s">
+        <v>401</v>
+      </c>
+      <c r="D223" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>208</v>
+      </c>
+      <c r="C224" t="s">
+        <v>401</v>
+      </c>
+      <c r="D224" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>209</v>
+      </c>
+      <c r="C225" t="s">
+        <v>401</v>
+      </c>
+      <c r="D225" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>210</v>
+      </c>
+      <c r="C226" t="s">
+        <v>401</v>
+      </c>
+      <c r="D226" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>211</v>
+      </c>
+      <c r="C227" t="s">
+        <v>401</v>
+      </c>
+      <c r="D227" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>212</v>
+      </c>
+      <c r="C228" t="s">
+        <v>401</v>
+      </c>
+      <c r="D228" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>213</v>
+      </c>
+      <c r="C229" t="s">
+        <v>401</v>
+      </c>
+      <c r="D229" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>214</v>
+      </c>
+      <c r="C230" t="s">
+        <v>401</v>
+      </c>
+      <c r="D230" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>215</v>
+      </c>
+      <c r="C231" t="s">
+        <v>401</v>
+      </c>
+      <c r="D231" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>401</v>
+      </c>
+      <c r="D232" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>216</v>
+      </c>
+      <c r="C233" t="s">
+        <v>401</v>
+      </c>
+      <c r="D233" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>217</v>
+      </c>
+      <c r="C234" t="s">
+        <v>401</v>
+      </c>
+      <c r="D234" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>218</v>
+      </c>
+      <c r="C235" t="s">
+        <v>401</v>
+      </c>
+      <c r="D235" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>219</v>
+      </c>
+      <c r="C236" t="s">
+        <v>401</v>
+      </c>
+      <c r="D236" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>220</v>
+      </c>
+      <c r="C237" t="s">
+        <v>401</v>
+      </c>
+      <c r="D237" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>221</v>
+      </c>
+      <c r="C238" t="s">
+        <v>401</v>
+      </c>
+      <c r="D238" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>222</v>
+      </c>
+      <c r="C239" t="s">
+        <v>401</v>
+      </c>
+      <c r="D239" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>223</v>
+      </c>
+      <c r="C240" t="s">
+        <v>401</v>
+      </c>
+      <c r="D240" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>224</v>
+      </c>
+      <c r="C241" t="s">
+        <v>401</v>
+      </c>
+      <c r="D241" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>225</v>
+      </c>
+      <c r="C242" t="s">
+        <v>401</v>
+      </c>
+      <c r="D242" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>226</v>
+      </c>
+      <c r="C243" t="s">
+        <v>401</v>
+      </c>
+      <c r="D243" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>227</v>
+      </c>
+      <c r="C244" t="s">
+        <v>401</v>
+      </c>
+      <c r="D244" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>228</v>
+      </c>
+      <c r="C245" t="s">
+        <v>401</v>
+      </c>
+      <c r="D245" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>229</v>
+      </c>
+      <c r="C246" t="s">
+        <v>401</v>
+      </c>
+      <c r="D246" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>230</v>
+      </c>
+      <c r="C247" t="s">
+        <v>401</v>
+      </c>
+      <c r="D247" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>231</v>
+      </c>
+      <c r="C248" t="s">
+        <v>401</v>
+      </c>
+      <c r="D248" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>232</v>
+      </c>
+      <c r="C249" t="s">
+        <v>401</v>
+      </c>
+      <c r="D249" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>233</v>
+      </c>
+      <c r="C250" t="s">
+        <v>401</v>
+      </c>
+      <c r="D250" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>234</v>
+      </c>
+      <c r="C251" t="s">
+        <v>401</v>
+      </c>
+      <c r="D251" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>235</v>
+      </c>
+      <c r="C252" t="s">
+        <v>401</v>
+      </c>
+      <c r="D252" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>236</v>
+      </c>
+      <c r="C253" t="s">
+        <v>401</v>
+      </c>
+      <c r="D253" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>237</v>
+      </c>
+      <c r="C254" t="s">
+        <v>401</v>
+      </c>
+      <c r="D254" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>238</v>
+      </c>
+      <c r="C255" t="s">
+        <v>401</v>
+      </c>
+      <c r="D255" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>239</v>
+      </c>
+      <c r="C256" t="s">
+        <v>401</v>
+      </c>
+      <c r="D256" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>240</v>
+      </c>
+      <c r="C257" t="s">
+        <v>401</v>
+      </c>
+      <c r="D257" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="D221" t="s">
+      <c r="B258" t="s">
+        <v>241</v>
+      </c>
+      <c r="C258" t="s">
+        <v>401</v>
+      </c>
+      <c r="D258" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>242</v>
+      </c>
+      <c r="C259" t="s">
+        <v>401</v>
+      </c>
+      <c r="D259" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>243</v>
+      </c>
+      <c r="C260" t="s">
+        <v>401</v>
+      </c>
+      <c r="D260" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>244</v>
+      </c>
+      <c r="C261" t="s">
+        <v>401</v>
+      </c>
+      <c r="D261" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>245</v>
+      </c>
+      <c r="C262" t="s">
+        <v>401</v>
+      </c>
+      <c r="D262" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>246</v>
+      </c>
+      <c r="C263" t="s">
+        <v>401</v>
+      </c>
+      <c r="D263" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>247</v>
+      </c>
+      <c r="C264" t="s">
+        <v>401</v>
+      </c>
+      <c r="D264" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>248</v>
+      </c>
+      <c r="C265" t="s">
+        <v>401</v>
+      </c>
+      <c r="D265" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C266" t="s">
+        <v>401</v>
+      </c>
+      <c r="D266" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>250</v>
+      </c>
+      <c r="C267" t="s">
+        <v>401</v>
+      </c>
+      <c r="D267" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>46</v>
+      </c>
+      <c r="C268" t="s">
+        <v>401</v>
+      </c>
+      <c r="D268" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>251</v>
+      </c>
+      <c r="C269" t="s">
+        <v>401</v>
+      </c>
+      <c r="D269" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>252</v>
+      </c>
+      <c r="C270" t="s">
+        <v>401</v>
+      </c>
+      <c r="D270" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C271" t="s">
+        <v>401</v>
+      </c>
+      <c r="D271" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>254</v>
+      </c>
+      <c r="C272" t="s">
+        <v>401</v>
+      </c>
+      <c r="D272" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>255</v>
+      </c>
+      <c r="C273" t="s">
+        <v>401</v>
+      </c>
+      <c r="D273" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
         <v>256</v>
+      </c>
+      <c r="C274" t="s">
+        <v>401</v>
+      </c>
+      <c r="D274" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>257</v>
+      </c>
+      <c r="C275" t="s">
+        <v>401</v>
+      </c>
+      <c r="D275" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>258</v>
+      </c>
+      <c r="C276" t="s">
+        <v>401</v>
+      </c>
+      <c r="D276" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>259</v>
+      </c>
+      <c r="C277" t="s">
+        <v>401</v>
+      </c>
+      <c r="D277" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>260</v>
+      </c>
+      <c r="C278" t="s">
+        <v>401</v>
+      </c>
+      <c r="D278" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>261</v>
+      </c>
+      <c r="C279" t="s">
+        <v>401</v>
+      </c>
+      <c r="D279" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>262</v>
+      </c>
+      <c r="C280" t="s">
+        <v>401</v>
+      </c>
+      <c r="D280" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>263</v>
+      </c>
+      <c r="C281" t="s">
+        <v>401</v>
+      </c>
+      <c r="D281" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>264</v>
+      </c>
+      <c r="C282" t="s">
+        <v>401</v>
+      </c>
+      <c r="D282" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>265</v>
+      </c>
+      <c r="C283" t="s">
+        <v>401</v>
+      </c>
+      <c r="D283" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>266</v>
+      </c>
+      <c r="C284" t="s">
+        <v>401</v>
+      </c>
+      <c r="D284" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>267</v>
+      </c>
+      <c r="C285" t="s">
+        <v>401</v>
+      </c>
+      <c r="D285" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>268</v>
+      </c>
+      <c r="C286" t="s">
+        <v>401</v>
+      </c>
+      <c r="D286" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>269</v>
+      </c>
+      <c r="C287" t="s">
+        <v>401</v>
+      </c>
+      <c r="D287" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>270</v>
+      </c>
+      <c r="C288" t="s">
+        <v>401</v>
+      </c>
+      <c r="D288" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>271</v>
+      </c>
+      <c r="C289" t="s">
+        <v>401</v>
+      </c>
+      <c r="D289" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>272</v>
+      </c>
+      <c r="C290" t="s">
+        <v>401</v>
+      </c>
+      <c r="D290" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>273</v>
+      </c>
+      <c r="C291" t="s">
+        <v>401</v>
+      </c>
+      <c r="D291" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>274</v>
+      </c>
+      <c r="C292" t="s">
+        <v>401</v>
+      </c>
+      <c r="D292" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>275</v>
+      </c>
+      <c r="C293" t="s">
+        <v>401</v>
+      </c>
+      <c r="D293" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>276</v>
+      </c>
+      <c r="C294" t="s">
+        <v>401</v>
+      </c>
+      <c r="D294" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>277</v>
+      </c>
+      <c r="C295" t="s">
+        <v>401</v>
+      </c>
+      <c r="D295" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>278</v>
+      </c>
+      <c r="C296" t="s">
+        <v>401</v>
+      </c>
+      <c r="D296" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>279</v>
+      </c>
+      <c r="C297" t="s">
+        <v>401</v>
+      </c>
+      <c r="D297" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>280</v>
+      </c>
+      <c r="C298" t="s">
+        <v>401</v>
+      </c>
+      <c r="D298" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>281</v>
+      </c>
+      <c r="C299" t="s">
+        <v>401</v>
+      </c>
+      <c r="D299" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>282</v>
+      </c>
+      <c r="C300" t="s">
+        <v>401</v>
+      </c>
+      <c r="D300" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>283</v>
+      </c>
+      <c r="C301" t="s">
+        <v>401</v>
+      </c>
+      <c r="D301" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>284</v>
+      </c>
+      <c r="C302" t="s">
+        <v>401</v>
+      </c>
+      <c r="D302" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>285</v>
+      </c>
+      <c r="C303" t="s">
+        <v>401</v>
+      </c>
+      <c r="D303" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>286</v>
+      </c>
+      <c r="C304" t="s">
+        <v>401</v>
+      </c>
+      <c r="D304" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>287</v>
+      </c>
+      <c r="C305" t="s">
+        <v>401</v>
+      </c>
+      <c r="D305" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>288</v>
+      </c>
+      <c r="C306" t="s">
+        <v>401</v>
+      </c>
+      <c r="D306" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>289</v>
+      </c>
+      <c r="C307" t="s">
+        <v>401</v>
+      </c>
+      <c r="D307" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>290</v>
+      </c>
+      <c r="C308" t="s">
+        <v>401</v>
+      </c>
+      <c r="D308" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>291</v>
+      </c>
+      <c r="C309" t="s">
+        <v>401</v>
+      </c>
+      <c r="D309" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>292</v>
+      </c>
+      <c r="C310" t="s">
+        <v>401</v>
+      </c>
+      <c r="D310" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>293</v>
+      </c>
+      <c r="C311" t="s">
+        <v>401</v>
+      </c>
+      <c r="D311" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>294</v>
+      </c>
+      <c r="C312" t="s">
+        <v>401</v>
+      </c>
+      <c r="D312" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>295</v>
+      </c>
+      <c r="C313" t="s">
+        <v>401</v>
+      </c>
+      <c r="D313" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>296</v>
+      </c>
+      <c r="C314" t="s">
+        <v>401</v>
+      </c>
+      <c r="D314" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>297</v>
+      </c>
+      <c r="C315" t="s">
+        <v>401</v>
+      </c>
+      <c r="D315" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>298</v>
+      </c>
+      <c r="C316" t="s">
+        <v>401</v>
+      </c>
+      <c r="D316" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>299</v>
+      </c>
+      <c r="C317" t="s">
+        <v>401</v>
+      </c>
+      <c r="D317" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>300</v>
+      </c>
+      <c r="C318" t="s">
+        <v>401</v>
+      </c>
+      <c r="D318" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>301</v>
+      </c>
+      <c r="C319" t="s">
+        <v>401</v>
+      </c>
+      <c r="D319" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>302</v>
+      </c>
+      <c r="C320" t="s">
+        <v>401</v>
+      </c>
+      <c r="D320" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>303</v>
+      </c>
+      <c r="C321" t="s">
+        <v>401</v>
+      </c>
+      <c r="D321" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>304</v>
+      </c>
+      <c r="C322" t="s">
+        <v>401</v>
+      </c>
+      <c r="D322" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>305</v>
+      </c>
+      <c r="C323" t="s">
+        <v>401</v>
+      </c>
+      <c r="D323" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>306</v>
+      </c>
+      <c r="C324" t="s">
+        <v>401</v>
+      </c>
+      <c r="D324" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>307</v>
+      </c>
+      <c r="C325" t="s">
+        <v>401</v>
+      </c>
+      <c r="D325" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>308</v>
+      </c>
+      <c r="C326" t="s">
+        <v>401</v>
+      </c>
+      <c r="D326" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>309</v>
+      </c>
+      <c r="C327" t="s">
+        <v>401</v>
+      </c>
+      <c r="D327" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>310</v>
+      </c>
+      <c r="C328" t="s">
+        <v>401</v>
+      </c>
+      <c r="D328" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>311</v>
+      </c>
+      <c r="C329" t="s">
+        <v>401</v>
+      </c>
+      <c r="D329" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>312</v>
+      </c>
+      <c r="C330" t="s">
+        <v>401</v>
+      </c>
+      <c r="D330" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>313</v>
+      </c>
+      <c r="C331" t="s">
+        <v>401</v>
+      </c>
+      <c r="D331" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>314</v>
+      </c>
+      <c r="C332" t="s">
+        <v>401</v>
+      </c>
+      <c r="D332" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>315</v>
+      </c>
+      <c r="C333" t="s">
+        <v>401</v>
+      </c>
+      <c r="D333" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>316</v>
+      </c>
+      <c r="C334" t="s">
+        <v>401</v>
+      </c>
+      <c r="D334" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>317</v>
+      </c>
+      <c r="C335" t="s">
+        <v>401</v>
+      </c>
+      <c r="D335" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>318</v>
+      </c>
+      <c r="C336" t="s">
+        <v>401</v>
+      </c>
+      <c r="D336" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>319</v>
+      </c>
+      <c r="C337" t="s">
+        <v>401</v>
+      </c>
+      <c r="D337" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>320</v>
+      </c>
+      <c r="C338" t="s">
+        <v>401</v>
+      </c>
+      <c r="D338" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>321</v>
+      </c>
+      <c r="C339" t="s">
+        <v>401</v>
+      </c>
+      <c r="D339" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>322</v>
+      </c>
+      <c r="C340" t="s">
+        <v>401</v>
+      </c>
+      <c r="D340" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>323</v>
+      </c>
+      <c r="C341" t="s">
+        <v>401</v>
+      </c>
+      <c r="D341" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>324</v>
+      </c>
+      <c r="C342" t="s">
+        <v>401</v>
+      </c>
+      <c r="D342" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>325</v>
+      </c>
+      <c r="C343" t="s">
+        <v>401</v>
+      </c>
+      <c r="D343" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>326</v>
+      </c>
+      <c r="C344" t="s">
+        <v>401</v>
+      </c>
+      <c r="D344" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>327</v>
+      </c>
+      <c r="C345" t="s">
+        <v>401</v>
+      </c>
+      <c r="D345" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>328</v>
+      </c>
+      <c r="C346" t="s">
+        <v>401</v>
+      </c>
+      <c r="D346" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>329</v>
+      </c>
+      <c r="C347" t="s">
+        <v>401</v>
+      </c>
+      <c r="D347" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>330</v>
+      </c>
+      <c r="C348" t="s">
+        <v>401</v>
+      </c>
+      <c r="D348" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>331</v>
+      </c>
+      <c r="C349" t="s">
+        <v>401</v>
+      </c>
+      <c r="D349" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>332</v>
+      </c>
+      <c r="C350" t="s">
+        <v>401</v>
+      </c>
+      <c r="D350" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>333</v>
+      </c>
+      <c r="C351" t="s">
+        <v>401</v>
+      </c>
+      <c r="D351" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>334</v>
+      </c>
+      <c r="C352" t="s">
+        <v>401</v>
+      </c>
+      <c r="D352" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>335</v>
+      </c>
+      <c r="C353" t="s">
+        <v>401</v>
+      </c>
+      <c r="D353" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>336</v>
+      </c>
+      <c r="C354" t="s">
+        <v>401</v>
+      </c>
+      <c r="D354" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>337</v>
+      </c>
+      <c r="C355" t="s">
+        <v>401</v>
+      </c>
+      <c r="D355" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>338</v>
+      </c>
+      <c r="C356" t="s">
+        <v>401</v>
+      </c>
+      <c r="D356" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>339</v>
+      </c>
+      <c r="C357" t="s">
+        <v>401</v>
+      </c>
+      <c r="D357" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>340</v>
+      </c>
+      <c r="C358" t="s">
+        <v>401</v>
+      </c>
+      <c r="D358" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>341</v>
+      </c>
+      <c r="C359" t="s">
+        <v>401</v>
+      </c>
+      <c r="D359" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>342</v>
+      </c>
+      <c r="C360" t="s">
+        <v>401</v>
+      </c>
+      <c r="D360" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>343</v>
+      </c>
+      <c r="C361" t="s">
+        <v>401</v>
+      </c>
+      <c r="D361" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>344</v>
+      </c>
+      <c r="C362" t="s">
+        <v>401</v>
+      </c>
+      <c r="D362" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>345</v>
+      </c>
+      <c r="C363" t="s">
+        <v>401</v>
+      </c>
+      <c r="D363" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>346</v>
+      </c>
+      <c r="C364" t="s">
+        <v>401</v>
+      </c>
+      <c r="D364" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>15</v>
+      </c>
+      <c r="C365" t="s">
+        <v>401</v>
+      </c>
+      <c r="D365" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>347</v>
+      </c>
+      <c r="C366" t="s">
+        <v>401</v>
+      </c>
+      <c r="D366" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>348</v>
+      </c>
+      <c r="C367" t="s">
+        <v>401</v>
+      </c>
+      <c r="D367" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>349</v>
+      </c>
+      <c r="C368" t="s">
+        <v>401</v>
+      </c>
+      <c r="D368" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>350</v>
+      </c>
+      <c r="C369" t="s">
+        <v>401</v>
+      </c>
+      <c r="D369" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>351</v>
+      </c>
+      <c r="C370" t="s">
+        <v>401</v>
+      </c>
+      <c r="D370" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>34</v>
+      </c>
+      <c r="C371" t="s">
+        <v>401</v>
+      </c>
+      <c r="D371" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>352</v>
+      </c>
+      <c r="C372" t="s">
+        <v>401</v>
+      </c>
+      <c r="D372" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>353</v>
+      </c>
+      <c r="C373" t="s">
+        <v>401</v>
+      </c>
+      <c r="D373" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>354</v>
+      </c>
+      <c r="C374" t="s">
+        <v>401</v>
+      </c>
+      <c r="D374" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>355</v>
+      </c>
+      <c r="C375" t="s">
+        <v>401</v>
+      </c>
+      <c r="D375" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>356</v>
+      </c>
+      <c r="C376" t="s">
+        <v>401</v>
+      </c>
+      <c r="D376" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>357</v>
+      </c>
+      <c r="C377" t="s">
+        <v>401</v>
+      </c>
+      <c r="D377" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>358</v>
+      </c>
+      <c r="C378" t="s">
+        <v>401</v>
+      </c>
+      <c r="D378" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>359</v>
+      </c>
+      <c r="C379" t="s">
+        <v>401</v>
+      </c>
+      <c r="D379" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>360</v>
+      </c>
+      <c r="C380" t="s">
+        <v>401</v>
+      </c>
+      <c r="D380" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>361</v>
+      </c>
+      <c r="C381" t="s">
+        <v>401</v>
+      </c>
+      <c r="D381" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>362</v>
+      </c>
+      <c r="C382" t="s">
+        <v>401</v>
+      </c>
+      <c r="D382" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>363</v>
+      </c>
+      <c r="C383" t="s">
+        <v>401</v>
+      </c>
+      <c r="D383" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>364</v>
+      </c>
+      <c r="C384" t="s">
+        <v>401</v>
+      </c>
+      <c r="D384" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>365</v>
+      </c>
+      <c r="C385" t="s">
+        <v>401</v>
+      </c>
+      <c r="D385" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>366</v>
+      </c>
+      <c r="C386" t="s">
+        <v>401</v>
+      </c>
+      <c r="D386" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>367</v>
+      </c>
+      <c r="C387" t="s">
+        <v>401</v>
+      </c>
+      <c r="D387" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>368</v>
+      </c>
+      <c r="C388" t="s">
+        <v>401</v>
+      </c>
+      <c r="D388" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>369</v>
+      </c>
+      <c r="C389" t="s">
+        <v>401</v>
+      </c>
+      <c r="D389" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>370</v>
+      </c>
+      <c r="C390" t="s">
+        <v>401</v>
+      </c>
+      <c r="D390" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>371</v>
+      </c>
+      <c r="C391" t="s">
+        <v>401</v>
+      </c>
+      <c r="D391" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>372</v>
+      </c>
+      <c r="C392" t="s">
+        <v>401</v>
+      </c>
+      <c r="D392" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>373</v>
+      </c>
+      <c r="C393" t="s">
+        <v>401</v>
+      </c>
+      <c r="D393" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>374</v>
+      </c>
+      <c r="C394" t="s">
+        <v>401</v>
+      </c>
+      <c r="D394" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>375</v>
+      </c>
+      <c r="C395" t="s">
+        <v>401</v>
+      </c>
+      <c r="D395" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>376</v>
+      </c>
+      <c r="C396" t="s">
+        <v>401</v>
+      </c>
+      <c r="D396" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>377</v>
+      </c>
+      <c r="C397" t="s">
+        <v>401</v>
+      </c>
+      <c r="D397" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>378</v>
+      </c>
+      <c r="C398" t="s">
+        <v>401</v>
+      </c>
+      <c r="D398" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>379</v>
+      </c>
+      <c r="C399" t="s">
+        <v>401</v>
+      </c>
+      <c r="D399" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>380</v>
+      </c>
+      <c r="C400" t="s">
+        <v>401</v>
+      </c>
+      <c r="D400" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>381</v>
+      </c>
+      <c r="C401" t="s">
+        <v>401</v>
+      </c>
+      <c r="D401" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>382</v>
+      </c>
+      <c r="C402" t="s">
+        <v>401</v>
+      </c>
+      <c r="D402" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
